--- a/docs/JNLTrav.xlsx
+++ b/docs/JNLTrav.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mat/Library/Mobile Documents/com~apple~CloudDocs/_ETML/Pratiques/P_App-335/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po01imj\Documents\GitHub\P_AppMobile-Passion-Lecture\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A819F88E-38F5-A34C-A33D-D63BC6DFE3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE48477-8351-4449-ADBB-88C18D62277C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="500" windowWidth="31240" windowHeight="18160" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -120,16 +120,19 @@
     <t>Autre</t>
   </si>
   <si>
-    <t>EXEMPLE: Mise en place du repo Git et de la structure du projet</t>
-  </si>
-  <si>
-    <t>Nom Prénom</t>
-  </si>
-  <si>
     <t>18.03.2024  au 27.05.2024</t>
   </si>
   <si>
     <t>P_App - 335 - Passion Lecture</t>
+  </si>
+  <si>
+    <t>Création des maquettes</t>
+  </si>
+  <si>
+    <t>Schafstall Ethan</t>
+  </si>
+  <si>
+    <t>Introduction au projet + install de node et autres logiciels/outils</t>
   </si>
 </sst>
 </file>
@@ -425,80 +428,6 @@
   <dxfs count="17">
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -664,6 +593,80 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -686,7 +689,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -753,7 +756,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -967,7 +970,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-CH"/>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -1033,16 +1036,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.0416666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.7777777777777776E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0833333333333332E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1099,7 +1102,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1136,7 +1139,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CH"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1748,18 +1751,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="A6:G532" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="6">
       <calculatedColumnFormula>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="h." dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Type" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarques/problèmes" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="h." dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Type" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarques/problèmes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1955,27 +1958,27 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="9.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="83.5" customWidth="1"/>
-    <col min="7" max="7" width="72.1640625" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="72.125" customWidth="1"/>
+    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
@@ -1986,12 +1989,12 @@
       </c>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" s="54"/>
       <c r="E2" s="54"/>
@@ -1999,16 +2002,16 @@
         <v>2</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="24" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="25" t="str">
-        <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 0 heurs 30 minutes</v>
+        <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heures "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
+        <v>0 jours 2 heures 55 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2016,33 +2019,33 @@
         <v>10</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="24" hidden="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="23.25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
       <c r="C4" s="25">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C5" s="55" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="55"/>
     </row>
-    <row r="6" spans="1:15" s="23" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>11</v>
       </c>
@@ -2065,31 +2068,46 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <f>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7" s="38">
-        <v>45344</v>
-      </c>
-      <c r="C7" s="34"/>
+        <v>45369</v>
+      </c>
+      <c r="C7" s="34">
+        <v>2</v>
+      </c>
       <c r="D7" s="42">
+        <v>40</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <f>IF(ISBLANK(B8),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B8))</f>
+        <v>12</v>
+      </c>
+      <c r="B8" s="39">
+        <v>45369</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="43">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="39"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="43"/>
-      <c r="F8" s="48"/>
       <c r="G8" s="17"/>
       <c r="M8" t="s">
         <v>3</v>
@@ -2101,7 +2119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="40"/>
       <c r="C9" s="36"/>
@@ -2119,7 +2137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="39"/>
       <c r="C10" s="35"/>
       <c r="D10" s="43"/>
@@ -2135,7 +2153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="40"/>
       <c r="C11" s="36"/>
@@ -2153,7 +2171,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="39"/>
       <c r="C12" s="35"/>
       <c r="D12" s="43"/>
@@ -2169,7 +2187,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="40"/>
       <c r="C13" s="36"/>
@@ -2187,7 +2205,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="39"/>
       <c r="C14" s="35"/>
       <c r="D14" s="43"/>
@@ -2203,7 +2221,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="40"/>
       <c r="C15" s="36"/>
@@ -2221,7 +2239,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" s="39"/>
       <c r="C16" s="35"/>
       <c r="D16" s="43"/>
@@ -2231,7 +2249,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="40"/>
       <c r="C17" s="36"/>
@@ -2243,7 +2261,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B18" s="39"/>
       <c r="C18" s="35"/>
       <c r="D18" s="43"/>
@@ -2253,7 +2271,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="40"/>
       <c r="C19" s="36"/>
@@ -2265,14 +2283,14 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B20" s="39"/>
       <c r="C20" s="35"/>
       <c r="D20" s="43"/>
       <c r="F20" s="48"/>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="40"/>
       <c r="C21" s="36"/>
@@ -2281,14 +2299,14 @@
       <c r="F21" s="48"/>
       <c r="G21" s="20"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="39"/>
       <c r="C22" s="35"/>
       <c r="D22" s="43"/>
       <c r="F22" s="48"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="40"/>
       <c r="C23" s="36"/>
@@ -2297,14 +2315,14 @@
       <c r="F23" s="48"/>
       <c r="G23" s="20"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24" s="39"/>
       <c r="C24" s="35"/>
       <c r="D24" s="43"/>
       <c r="F24" s="48"/>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="40"/>
       <c r="C25" s="36"/>
@@ -2313,14 +2331,14 @@
       <c r="F25" s="48"/>
       <c r="G25" s="20"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B26" s="39"/>
       <c r="C26" s="35"/>
       <c r="D26" s="43"/>
       <c r="F26" s="48"/>
       <c r="G26" s="17"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="40"/>
       <c r="C27" s="36"/>
@@ -2329,14 +2347,14 @@
       <c r="F27" s="48"/>
       <c r="G27" s="20"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28" s="39"/>
       <c r="C28" s="35"/>
       <c r="D28" s="43"/>
       <c r="F28" s="47"/>
       <c r="G28" s="17"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="40"/>
       <c r="C29" s="36"/>
@@ -2345,14 +2363,14 @@
       <c r="F29" s="47"/>
       <c r="G29" s="20"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B30" s="39"/>
       <c r="C30" s="35"/>
       <c r="D30" s="43"/>
       <c r="F30" s="48"/>
       <c r="G30" s="17"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="40"/>
       <c r="C31" s="36"/>
@@ -2361,14 +2379,14 @@
       <c r="F31" s="47"/>
       <c r="G31" s="20"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B32" s="39"/>
       <c r="C32" s="35"/>
       <c r="D32" s="43"/>
       <c r="F32" s="48"/>
       <c r="G32" s="17"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
       <c r="B33" s="40"/>
       <c r="C33" s="36"/>
@@ -2377,14 +2395,14 @@
       <c r="F33" s="47"/>
       <c r="G33" s="20"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34" s="39"/>
       <c r="C34" s="35"/>
       <c r="D34" s="43"/>
       <c r="F34" s="47"/>
       <c r="G34" s="17"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="40"/>
       <c r="C35" s="36"/>
@@ -2393,14 +2411,14 @@
       <c r="F35" s="48"/>
       <c r="G35" s="20"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B36" s="39"/>
       <c r="C36" s="35"/>
       <c r="D36" s="43"/>
       <c r="F36" s="47"/>
       <c r="G36" s="17"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="40"/>
       <c r="C37" s="36"/>
@@ -2409,14 +2427,14 @@
       <c r="F37" s="47"/>
       <c r="G37" s="20"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38" s="39"/>
       <c r="C38" s="35"/>
       <c r="D38" s="43"/>
       <c r="F38" s="47"/>
       <c r="G38" s="17"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="40"/>
       <c r="C39" s="36"/>
@@ -2425,14 +2443,14 @@
       <c r="F39" s="47"/>
       <c r="G39" s="20"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" s="39"/>
       <c r="C40" s="35"/>
       <c r="D40" s="43"/>
       <c r="F40" s="47"/>
       <c r="G40" s="17"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
       <c r="B41" s="40"/>
       <c r="C41" s="36"/>
@@ -2441,14 +2459,14 @@
       <c r="F41" s="47"/>
       <c r="G41" s="20"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42" s="39"/>
       <c r="C42" s="35"/>
       <c r="D42" s="43"/>
       <c r="F42" s="47"/>
       <c r="G42" s="17"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="18"/>
       <c r="B43" s="40"/>
       <c r="C43" s="36"/>
@@ -2457,14 +2475,14 @@
       <c r="F43" s="47"/>
       <c r="G43" s="20"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B44" s="39"/>
       <c r="C44" s="35"/>
       <c r="D44" s="43"/>
       <c r="F44" s="47"/>
       <c r="G44" s="17"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
       <c r="B45" s="40"/>
       <c r="C45" s="36"/>
@@ -2473,14 +2491,14 @@
       <c r="F45" s="47"/>
       <c r="G45" s="20"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B46" s="39"/>
       <c r="C46" s="35"/>
       <c r="D46" s="43"/>
       <c r="F46" s="47"/>
       <c r="G46" s="17"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="18"/>
       <c r="B47" s="40"/>
       <c r="C47" s="36"/>
@@ -2489,14 +2507,14 @@
       <c r="F47" s="47"/>
       <c r="G47" s="20"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B48" s="39"/>
       <c r="C48" s="35"/>
       <c r="D48" s="43"/>
       <c r="F48" s="47"/>
       <c r="G48" s="17"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="18"/>
       <c r="B49" s="40"/>
       <c r="C49" s="36"/>
@@ -2505,14 +2523,14 @@
       <c r="F49" s="47"/>
       <c r="G49" s="20"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B50" s="39"/>
       <c r="C50" s="35"/>
       <c r="D50" s="43"/>
       <c r="F50" s="47"/>
       <c r="G50" s="17"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="18"/>
       <c r="B51" s="40"/>
       <c r="C51" s="36"/>
@@ -2521,14 +2539,14 @@
       <c r="F51" s="47"/>
       <c r="G51" s="20"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B52" s="39"/>
       <c r="C52" s="35"/>
       <c r="D52" s="43"/>
       <c r="F52" s="47"/>
       <c r="G52" s="17"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="18"/>
       <c r="B53" s="40"/>
       <c r="C53" s="36"/>
@@ -2537,14 +2555,14 @@
       <c r="F53" s="47"/>
       <c r="G53" s="20"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B54" s="39"/>
       <c r="C54" s="35"/>
       <c r="D54" s="43"/>
       <c r="F54" s="47"/>
       <c r="G54" s="17"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="18"/>
       <c r="B55" s="40"/>
       <c r="C55" s="36"/>
@@ -2553,7 +2571,7 @@
       <c r="F55" s="47"/>
       <c r="G55" s="20"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="str">
         <f>IF(ISBLANK(B56),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B56))</f>
         <v/>
@@ -2564,7 +2582,7 @@
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="str">
         <f>IF(ISBLANK(B57),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B57))</f>
         <v/>
@@ -2576,7 +2594,7 @@
       <c r="F57" s="20"/>
       <c r="G57" s="20"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="str">
         <f>IF(ISBLANK(B58),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B58))</f>
         <v/>
@@ -2587,7 +2605,7 @@
       <c r="F58" s="17"/>
       <c r="G58" s="17"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="str">
         <f>IF(ISBLANK(B59),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B59))</f>
         <v/>
@@ -2599,7 +2617,7 @@
       <c r="F59" s="20"/>
       <c r="G59" s="20"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="str">
         <f>IF(ISBLANK(B60),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B60))</f>
         <v/>
@@ -2610,7 +2628,7 @@
       <c r="F60" s="17"/>
       <c r="G60" s="17"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="str">
         <f>IF(ISBLANK(B61),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B61))</f>
         <v/>
@@ -2622,7 +2640,7 @@
       <c r="F61" s="20"/>
       <c r="G61" s="20"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="str">
         <f>IF(ISBLANK(B62),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B62))</f>
         <v/>
@@ -2633,7 +2651,7 @@
       <c r="F62" s="17"/>
       <c r="G62" s="17"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="str">
         <f>IF(ISBLANK(B63),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B63))</f>
         <v/>
@@ -2645,7 +2663,7 @@
       <c r="F63" s="20"/>
       <c r="G63" s="20"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="str">
         <f>IF(ISBLANK(B64),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B64))</f>
         <v/>
@@ -2656,7 +2674,7 @@
       <c r="F64" s="17"/>
       <c r="G64" s="17"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="str">
         <f>IF(ISBLANK(B65),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B65))</f>
         <v/>
@@ -2668,7 +2686,7 @@
       <c r="F65" s="20"/>
       <c r="G65" s="20"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="str">
         <f>IF(ISBLANK(B66),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B66))</f>
         <v/>
@@ -2679,7 +2697,7 @@
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="str">
         <f>IF(ISBLANK(B67),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B67))</f>
         <v/>
@@ -2691,7 +2709,7 @@
       <c r="F67" s="20"/>
       <c r="G67" s="20"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="str">
         <f>IF(ISBLANK(B68),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B68))</f>
         <v/>
@@ -2702,7 +2720,7 @@
       <c r="F68" s="17"/>
       <c r="G68" s="17"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="str">
         <f>IF(ISBLANK(B69),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B69))</f>
         <v/>
@@ -2714,7 +2732,7 @@
       <c r="F69" s="20"/>
       <c r="G69" s="20"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="str">
         <f>IF(ISBLANK(B70),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B70))</f>
         <v/>
@@ -2725,7 +2743,7 @@
       <c r="F70" s="17"/>
       <c r="G70" s="17"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="str">
         <f>IF(ISBLANK(B71),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B71))</f>
         <v/>
@@ -2737,7 +2755,7 @@
       <c r="F71" s="20"/>
       <c r="G71" s="20"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="str">
         <f>IF(ISBLANK(B72),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B72))</f>
         <v/>
@@ -2748,7 +2766,7 @@
       <c r="F72" s="17"/>
       <c r="G72" s="17"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="str">
         <f>IF(ISBLANK(B73),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B73))</f>
         <v/>
@@ -2760,7 +2778,7 @@
       <c r="F73" s="20"/>
       <c r="G73" s="20"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="str">
         <f>IF(ISBLANK(B74),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B74))</f>
         <v/>
@@ -2771,7 +2789,7 @@
       <c r="F74" s="17"/>
       <c r="G74" s="17"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="str">
         <f>IF(ISBLANK(B75),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B75))</f>
         <v/>
@@ -2783,7 +2801,7 @@
       <c r="F75" s="20"/>
       <c r="G75" s="20"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="str">
         <f>IF(ISBLANK(B76),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B76))</f>
         <v/>
@@ -2794,7 +2812,7 @@
       <c r="F76" s="17"/>
       <c r="G76" s="17"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="str">
         <f>IF(ISBLANK(B77),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B77))</f>
         <v/>
@@ -2806,7 +2824,7 @@
       <c r="F77" s="20"/>
       <c r="G77" s="20"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="str">
         <f>IF(ISBLANK(B78),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B78))</f>
         <v/>
@@ -2817,7 +2835,7 @@
       <c r="F78" s="17"/>
       <c r="G78" s="17"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="str">
         <f>IF(ISBLANK(B79),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B79))</f>
         <v/>
@@ -2829,7 +2847,7 @@
       <c r="F79" s="20"/>
       <c r="G79" s="20"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="str">
         <f>IF(ISBLANK(B80),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B80))</f>
         <v/>
@@ -2840,7 +2858,7 @@
       <c r="F80" s="17"/>
       <c r="G80" s="17"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="str">
         <f>IF(ISBLANK(B81),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B81))</f>
         <v/>
@@ -2852,7 +2870,7 @@
       <c r="F81" s="20"/>
       <c r="G81" s="20"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="str">
         <f>IF(ISBLANK(B82),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B82))</f>
         <v/>
@@ -2863,7 +2881,7 @@
       <c r="F82" s="17"/>
       <c r="G82" s="17"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="str">
         <f>IF(ISBLANK(B83),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B83))</f>
         <v/>
@@ -2875,7 +2893,7 @@
       <c r="F83" s="20"/>
       <c r="G83" s="20"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="str">
         <f>IF(ISBLANK(B84),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B84))</f>
         <v/>
@@ -2886,7 +2904,7 @@
       <c r="F84" s="17"/>
       <c r="G84" s="17"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="str">
         <f>IF(ISBLANK(B85),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B85))</f>
         <v/>
@@ -2898,7 +2916,7 @@
       <c r="F85" s="20"/>
       <c r="G85" s="20"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="str">
         <f>IF(ISBLANK(B86),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B86))</f>
         <v/>
@@ -2909,7 +2927,7 @@
       <c r="F86" s="17"/>
       <c r="G86" s="17"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="str">
         <f>IF(ISBLANK(B87),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B87))</f>
         <v/>
@@ -2921,7 +2939,7 @@
       <c r="F87" s="20"/>
       <c r="G87" s="20"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="str">
         <f>IF(ISBLANK(B88),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B88))</f>
         <v/>
@@ -2932,7 +2950,7 @@
       <c r="F88" s="17"/>
       <c r="G88" s="17"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="str">
         <f>IF(ISBLANK(B89),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B89))</f>
         <v/>
@@ -2944,7 +2962,7 @@
       <c r="F89" s="20"/>
       <c r="G89" s="20"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="str">
         <f>IF(ISBLANK(B90),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B90))</f>
         <v/>
@@ -2955,7 +2973,7 @@
       <c r="F90" s="17"/>
       <c r="G90" s="17"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="str">
         <f>IF(ISBLANK(B91),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B91))</f>
         <v/>
@@ -2967,7 +2985,7 @@
       <c r="F91" s="20"/>
       <c r="G91" s="20"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="str">
         <f>IF(ISBLANK(B92),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B92))</f>
         <v/>
@@ -2978,7 +2996,7 @@
       <c r="F92" s="17"/>
       <c r="G92" s="17"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="str">
         <f>IF(ISBLANK(B93),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B93))</f>
         <v/>
@@ -2990,7 +3008,7 @@
       <c r="F93" s="20"/>
       <c r="G93" s="20"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="str">
         <f>IF(ISBLANK(B94),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B94))</f>
         <v/>
@@ -3001,7 +3019,7 @@
       <c r="F94" s="17"/>
       <c r="G94" s="17"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="str">
         <f>IF(ISBLANK(B95),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B95))</f>
         <v/>
@@ -3013,7 +3031,7 @@
       <c r="F95" s="20"/>
       <c r="G95" s="20"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="str">
         <f>IF(ISBLANK(B96),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B96))</f>
         <v/>
@@ -3024,7 +3042,7 @@
       <c r="F96" s="17"/>
       <c r="G96" s="17"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="str">
         <f>IF(ISBLANK(B97),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B97))</f>
         <v/>
@@ -3036,7 +3054,7 @@
       <c r="F97" s="20"/>
       <c r="G97" s="20"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="str">
         <f>IF(ISBLANK(B98),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B98))</f>
         <v/>
@@ -3047,7 +3065,7 @@
       <c r="F98" s="17"/>
       <c r="G98" s="17"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="18" t="str">
         <f>IF(ISBLANK(B99),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B99))</f>
         <v/>
@@ -3059,7 +3077,7 @@
       <c r="F99" s="20"/>
       <c r="G99" s="20"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="str">
         <f>IF(ISBLANK(B100),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B100))</f>
         <v/>
@@ -3070,7 +3088,7 @@
       <c r="F100" s="17"/>
       <c r="G100" s="17"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="18" t="str">
         <f>IF(ISBLANK(B101),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B101))</f>
         <v/>
@@ -3082,7 +3100,7 @@
       <c r="F101" s="20"/>
       <c r="G101" s="20"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="str">
         <f>IF(ISBLANK(B102),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B102))</f>
         <v/>
@@ -3093,7 +3111,7 @@
       <c r="F102" s="17"/>
       <c r="G102" s="17"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="str">
         <f>IF(ISBLANK(B103),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B103))</f>
         <v/>
@@ -3105,7 +3123,7 @@
       <c r="F103" s="20"/>
       <c r="G103" s="20"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="str">
         <f>IF(ISBLANK(B104),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B104))</f>
         <v/>
@@ -3116,7 +3134,7 @@
       <c r="F104" s="17"/>
       <c r="G104" s="17"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="str">
         <f>IF(ISBLANK(B105),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B105))</f>
         <v/>
@@ -3128,7 +3146,7 @@
       <c r="F105" s="20"/>
       <c r="G105" s="20"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="str">
         <f>IF(ISBLANK(B106),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B106))</f>
         <v/>
@@ -3139,7 +3157,7 @@
       <c r="F106" s="17"/>
       <c r="G106" s="17"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="str">
         <f>IF(ISBLANK(B107),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B107))</f>
         <v/>
@@ -3151,7 +3169,7 @@
       <c r="F107" s="20"/>
       <c r="G107" s="20"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="str">
         <f>IF(ISBLANK(B108),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B108))</f>
         <v/>
@@ -3162,7 +3180,7 @@
       <c r="F108" s="17"/>
       <c r="G108" s="17"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="str">
         <f>IF(ISBLANK(B109),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B109))</f>
         <v/>
@@ -3174,7 +3192,7 @@
       <c r="F109" s="20"/>
       <c r="G109" s="20"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="str">
         <f>IF(ISBLANK(B110),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B110))</f>
         <v/>
@@ -3185,7 +3203,7 @@
       <c r="F110" s="17"/>
       <c r="G110" s="17"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="str">
         <f>IF(ISBLANK(B111),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B111))</f>
         <v/>
@@ -3197,7 +3215,7 @@
       <c r="F111" s="20"/>
       <c r="G111" s="20"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="str">
         <f>IF(ISBLANK(B112),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B112))</f>
         <v/>
@@ -3208,7 +3226,7 @@
       <c r="F112" s="17"/>
       <c r="G112" s="17"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="str">
         <f>IF(ISBLANK(B113),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B113))</f>
         <v/>
@@ -3220,7 +3238,7 @@
       <c r="F113" s="20"/>
       <c r="G113" s="20"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="str">
         <f>IF(ISBLANK(B114),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B114))</f>
         <v/>
@@ -3231,7 +3249,7 @@
       <c r="F114" s="17"/>
       <c r="G114" s="17"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="str">
         <f>IF(ISBLANK(B115),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B115))</f>
         <v/>
@@ -3243,7 +3261,7 @@
       <c r="F115" s="20"/>
       <c r="G115" s="20"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="str">
         <f>IF(ISBLANK(B116),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B116))</f>
         <v/>
@@ -3254,7 +3272,7 @@
       <c r="F116" s="17"/>
       <c r="G116" s="17"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="str">
         <f>IF(ISBLANK(B117),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B117))</f>
         <v/>
@@ -3266,7 +3284,7 @@
       <c r="F117" s="20"/>
       <c r="G117" s="20"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="str">
         <f>IF(ISBLANK(B118),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B118))</f>
         <v/>
@@ -3277,7 +3295,7 @@
       <c r="F118" s="17"/>
       <c r="G118" s="17"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="str">
         <f>IF(ISBLANK(B119),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B119))</f>
         <v/>
@@ -3289,7 +3307,7 @@
       <c r="F119" s="20"/>
       <c r="G119" s="20"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="str">
         <f>IF(ISBLANK(B120),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B120))</f>
         <v/>
@@ -3300,7 +3318,7 @@
       <c r="F120" s="17"/>
       <c r="G120" s="17"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="18" t="str">
         <f>IF(ISBLANK(B121),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B121))</f>
         <v/>
@@ -3312,7 +3330,7 @@
       <c r="F121" s="20"/>
       <c r="G121" s="20"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="str">
         <f>IF(ISBLANK(B122),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B122))</f>
         <v/>
@@ -3323,7 +3341,7 @@
       <c r="F122" s="17"/>
       <c r="G122" s="17"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="18" t="str">
         <f>IF(ISBLANK(B123),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B123))</f>
         <v/>
@@ -3335,7 +3353,7 @@
       <c r="F123" s="20"/>
       <c r="G123" s="20"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="str">
         <f>IF(ISBLANK(B124),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B124))</f>
         <v/>
@@ -3346,7 +3364,7 @@
       <c r="F124" s="17"/>
       <c r="G124" s="17"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="18" t="str">
         <f>IF(ISBLANK(B125),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B125))</f>
         <v/>
@@ -3358,7 +3376,7 @@
       <c r="F125" s="20"/>
       <c r="G125" s="20"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="str">
         <f>IF(ISBLANK(B126),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B126))</f>
         <v/>
@@ -3369,7 +3387,7 @@
       <c r="F126" s="17"/>
       <c r="G126" s="17"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="18" t="str">
         <f>IF(ISBLANK(B127),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B127))</f>
         <v/>
@@ -3381,7 +3399,7 @@
       <c r="F127" s="20"/>
       <c r="G127" s="20"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="str">
         <f>IF(ISBLANK(B128),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B128))</f>
         <v/>
@@ -3392,7 +3410,7 @@
       <c r="F128" s="17"/>
       <c r="G128" s="17"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="18" t="str">
         <f>IF(ISBLANK(B129),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B129))</f>
         <v/>
@@ -3404,7 +3422,7 @@
       <c r="F129" s="20"/>
       <c r="G129" s="20"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="str">
         <f>IF(ISBLANK(B130),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B130))</f>
         <v/>
@@ -3415,7 +3433,7 @@
       <c r="F130" s="17"/>
       <c r="G130" s="17"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="18" t="str">
         <f>IF(ISBLANK(B131),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B131))</f>
         <v/>
@@ -3427,7 +3445,7 @@
       <c r="F131" s="20"/>
       <c r="G131" s="20"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="str">
         <f>IF(ISBLANK(B132),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B132))</f>
         <v/>
@@ -3438,7 +3456,7 @@
       <c r="F132" s="17"/>
       <c r="G132" s="17"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="18" t="str">
         <f>IF(ISBLANK(B133),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B133))</f>
         <v/>
@@ -3450,7 +3468,7 @@
       <c r="F133" s="20"/>
       <c r="G133" s="20"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="str">
         <f>IF(ISBLANK(B134),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B134))</f>
         <v/>
@@ -3461,7 +3479,7 @@
       <c r="F134" s="17"/>
       <c r="G134" s="17"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="18" t="str">
         <f>IF(ISBLANK(B135),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B135))</f>
         <v/>
@@ -3473,7 +3491,7 @@
       <c r="F135" s="20"/>
       <c r="G135" s="20"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="str">
         <f>IF(ISBLANK(B136),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B136))</f>
         <v/>
@@ -3484,7 +3502,7 @@
       <c r="F136" s="17"/>
       <c r="G136" s="17"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="18" t="str">
         <f>IF(ISBLANK(B137),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B137))</f>
         <v/>
@@ -3496,7 +3514,7 @@
       <c r="F137" s="20"/>
       <c r="G137" s="20"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="str">
         <f>IF(ISBLANK(B138),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B138))</f>
         <v/>
@@ -3507,7 +3525,7 @@
       <c r="F138" s="17"/>
       <c r="G138" s="17"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="18" t="str">
         <f>IF(ISBLANK(B139),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B139))</f>
         <v/>
@@ -3519,7 +3537,7 @@
       <c r="F139" s="20"/>
       <c r="G139" s="20"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="str">
         <f>IF(ISBLANK(B140),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B140))</f>
         <v/>
@@ -3530,7 +3548,7 @@
       <c r="F140" s="17"/>
       <c r="G140" s="17"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="18" t="str">
         <f>IF(ISBLANK(B141),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B141))</f>
         <v/>
@@ -3542,7 +3560,7 @@
       <c r="F141" s="20"/>
       <c r="G141" s="20"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="str">
         <f>IF(ISBLANK(B142),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B142))</f>
         <v/>
@@ -3553,7 +3571,7 @@
       <c r="F142" s="17"/>
       <c r="G142" s="17"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="18" t="str">
         <f>IF(ISBLANK(B143),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B143))</f>
         <v/>
@@ -3565,7 +3583,7 @@
       <c r="F143" s="20"/>
       <c r="G143" s="20"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="str">
         <f>IF(ISBLANK(B144),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B144))</f>
         <v/>
@@ -3576,7 +3594,7 @@
       <c r="F144" s="17"/>
       <c r="G144" s="17"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="18" t="str">
         <f>IF(ISBLANK(B145),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B145))</f>
         <v/>
@@ -3588,7 +3606,7 @@
       <c r="F145" s="20"/>
       <c r="G145" s="20"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="str">
         <f>IF(ISBLANK(B146),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B146))</f>
         <v/>
@@ -3599,7 +3617,7 @@
       <c r="F146" s="17"/>
       <c r="G146" s="17"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="18" t="str">
         <f>IF(ISBLANK(B147),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B147))</f>
         <v/>
@@ -3611,7 +3629,7 @@
       <c r="F147" s="20"/>
       <c r="G147" s="20"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="str">
         <f>IF(ISBLANK(B148),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B148))</f>
         <v/>
@@ -3622,7 +3640,7 @@
       <c r="F148" s="17"/>
       <c r="G148" s="17"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="18" t="str">
         <f>IF(ISBLANK(B149),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B149))</f>
         <v/>
@@ -3634,7 +3652,7 @@
       <c r="F149" s="20"/>
       <c r="G149" s="20"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="str">
         <f>IF(ISBLANK(B150),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B150))</f>
         <v/>
@@ -3645,7 +3663,7 @@
       <c r="F150" s="17"/>
       <c r="G150" s="17"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="18" t="str">
         <f>IF(ISBLANK(B151),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B151))</f>
         <v/>
@@ -3657,7 +3675,7 @@
       <c r="F151" s="20"/>
       <c r="G151" s="20"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="str">
         <f>IF(ISBLANK(B152),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B152))</f>
         <v/>
@@ -3668,7 +3686,7 @@
       <c r="F152" s="17"/>
       <c r="G152" s="17"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="18" t="str">
         <f>IF(ISBLANK(B153),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B153))</f>
         <v/>
@@ -3680,7 +3698,7 @@
       <c r="F153" s="20"/>
       <c r="G153" s="20"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="str">
         <f>IF(ISBLANK(B154),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B154))</f>
         <v/>
@@ -3691,7 +3709,7 @@
       <c r="F154" s="17"/>
       <c r="G154" s="17"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="18" t="str">
         <f>IF(ISBLANK(B155),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B155))</f>
         <v/>
@@ -3703,7 +3721,7 @@
       <c r="F155" s="20"/>
       <c r="G155" s="20"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="str">
         <f>IF(ISBLANK(B156),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B156))</f>
         <v/>
@@ -3714,7 +3732,7 @@
       <c r="F156" s="17"/>
       <c r="G156" s="17"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="18" t="str">
         <f>IF(ISBLANK(B157),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B157))</f>
         <v/>
@@ -3726,7 +3744,7 @@
       <c r="F157" s="20"/>
       <c r="G157" s="20"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="str">
         <f>IF(ISBLANK(B158),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B158))</f>
         <v/>
@@ -3737,7 +3755,7 @@
       <c r="F158" s="17"/>
       <c r="G158" s="17"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="18" t="str">
         <f>IF(ISBLANK(B159),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B159))</f>
         <v/>
@@ -3749,7 +3767,7 @@
       <c r="F159" s="20"/>
       <c r="G159" s="20"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="str">
         <f>IF(ISBLANK(B160),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B160))</f>
         <v/>
@@ -3760,7 +3778,7 @@
       <c r="F160" s="17"/>
       <c r="G160" s="17"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="18" t="str">
         <f>IF(ISBLANK(B161),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B161))</f>
         <v/>
@@ -3772,7 +3790,7 @@
       <c r="F161" s="20"/>
       <c r="G161" s="20"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="str">
         <f>IF(ISBLANK(B162),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B162))</f>
         <v/>
@@ -3783,7 +3801,7 @@
       <c r="F162" s="17"/>
       <c r="G162" s="17"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="18" t="str">
         <f>IF(ISBLANK(B163),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B163))</f>
         <v/>
@@ -3795,7 +3813,7 @@
       <c r="F163" s="20"/>
       <c r="G163" s="20"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="str">
         <f>IF(ISBLANK(B164),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B164))</f>
         <v/>
@@ -3806,7 +3824,7 @@
       <c r="F164" s="17"/>
       <c r="G164" s="17"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="18" t="str">
         <f>IF(ISBLANK(B165),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B165))</f>
         <v/>
@@ -3818,7 +3836,7 @@
       <c r="F165" s="20"/>
       <c r="G165" s="20"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="str">
         <f>IF(ISBLANK(B166),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B166))</f>
         <v/>
@@ -3829,7 +3847,7 @@
       <c r="F166" s="17"/>
       <c r="G166" s="17"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="18" t="str">
         <f>IF(ISBLANK(B167),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B167))</f>
         <v/>
@@ -3841,7 +3859,7 @@
       <c r="F167" s="20"/>
       <c r="G167" s="20"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="str">
         <f>IF(ISBLANK(B168),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B168))</f>
         <v/>
@@ -3852,7 +3870,7 @@
       <c r="F168" s="17"/>
       <c r="G168" s="17"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="18" t="str">
         <f>IF(ISBLANK(B169),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B169))</f>
         <v/>
@@ -3864,7 +3882,7 @@
       <c r="F169" s="20"/>
       <c r="G169" s="20"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="str">
         <f>IF(ISBLANK(B170),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B170))</f>
         <v/>
@@ -3875,7 +3893,7 @@
       <c r="F170" s="17"/>
       <c r="G170" s="17"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="18" t="str">
         <f>IF(ISBLANK(B171),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B171))</f>
         <v/>
@@ -3887,7 +3905,7 @@
       <c r="F171" s="20"/>
       <c r="G171" s="20"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="str">
         <f>IF(ISBLANK(B172),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B172))</f>
         <v/>
@@ -3898,7 +3916,7 @@
       <c r="F172" s="17"/>
       <c r="G172" s="17"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="18" t="str">
         <f>IF(ISBLANK(B173),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B173))</f>
         <v/>
@@ -3910,7 +3928,7 @@
       <c r="F173" s="20"/>
       <c r="G173" s="20"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="str">
         <f>IF(ISBLANK(B174),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B174))</f>
         <v/>
@@ -3921,7 +3939,7 @@
       <c r="F174" s="17"/>
       <c r="G174" s="17"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="18" t="str">
         <f>IF(ISBLANK(B175),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B175))</f>
         <v/>
@@ -3933,7 +3951,7 @@
       <c r="F175" s="20"/>
       <c r="G175" s="20"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="str">
         <f>IF(ISBLANK(B176),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B176))</f>
         <v/>
@@ -3944,7 +3962,7 @@
       <c r="F176" s="17"/>
       <c r="G176" s="17"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="18" t="str">
         <f>IF(ISBLANK(B177),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B177))</f>
         <v/>
@@ -3956,7 +3974,7 @@
       <c r="F177" s="20"/>
       <c r="G177" s="20"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="str">
         <f>IF(ISBLANK(B178),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B178))</f>
         <v/>
@@ -3967,7 +3985,7 @@
       <c r="F178" s="17"/>
       <c r="G178" s="17"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="18" t="str">
         <f>IF(ISBLANK(B179),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B179))</f>
         <v/>
@@ -3979,7 +3997,7 @@
       <c r="F179" s="20"/>
       <c r="G179" s="20"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="str">
         <f>IF(ISBLANK(B180),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B180))</f>
         <v/>
@@ -3990,7 +4008,7 @@
       <c r="F180" s="17"/>
       <c r="G180" s="17"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="18" t="str">
         <f>IF(ISBLANK(B181),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B181))</f>
         <v/>
@@ -4002,7 +4020,7 @@
       <c r="F181" s="20"/>
       <c r="G181" s="20"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="str">
         <f>IF(ISBLANK(B182),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B182))</f>
         <v/>
@@ -4013,7 +4031,7 @@
       <c r="F182" s="17"/>
       <c r="G182" s="17"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="18" t="str">
         <f>IF(ISBLANK(B183),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B183))</f>
         <v/>
@@ -4025,7 +4043,7 @@
       <c r="F183" s="20"/>
       <c r="G183" s="20"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="str">
         <f>IF(ISBLANK(B184),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B184))</f>
         <v/>
@@ -4036,7 +4054,7 @@
       <c r="F184" s="17"/>
       <c r="G184" s="17"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="18" t="str">
         <f>IF(ISBLANK(B185),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B185))</f>
         <v/>
@@ -4048,7 +4066,7 @@
       <c r="F185" s="20"/>
       <c r="G185" s="20"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="str">
         <f>IF(ISBLANK(B186),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B186))</f>
         <v/>
@@ -4059,7 +4077,7 @@
       <c r="F186" s="17"/>
       <c r="G186" s="17"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="18" t="str">
         <f>IF(ISBLANK(B187),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B187))</f>
         <v/>
@@ -4071,7 +4089,7 @@
       <c r="F187" s="20"/>
       <c r="G187" s="20"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="str">
         <f>IF(ISBLANK(B188),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B188))</f>
         <v/>
@@ -4082,7 +4100,7 @@
       <c r="F188" s="17"/>
       <c r="G188" s="17"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="18" t="str">
         <f>IF(ISBLANK(B189),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B189))</f>
         <v/>
@@ -4094,7 +4112,7 @@
       <c r="F189" s="20"/>
       <c r="G189" s="20"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="str">
         <f>IF(ISBLANK(B190),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B190))</f>
         <v/>
@@ -4105,7 +4123,7 @@
       <c r="F190" s="17"/>
       <c r="G190" s="17"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="18" t="str">
         <f>IF(ISBLANK(B191),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B191))</f>
         <v/>
@@ -4117,7 +4135,7 @@
       <c r="F191" s="20"/>
       <c r="G191" s="20"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="8" t="str">
         <f>IF(ISBLANK(B192),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B192))</f>
         <v/>
@@ -4128,7 +4146,7 @@
       <c r="F192" s="17"/>
       <c r="G192" s="17"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="18" t="str">
         <f>IF(ISBLANK(B193),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B193))</f>
         <v/>
@@ -4140,7 +4158,7 @@
       <c r="F193" s="20"/>
       <c r="G193" s="20"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="8" t="str">
         <f>IF(ISBLANK(B194),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B194))</f>
         <v/>
@@ -4151,7 +4169,7 @@
       <c r="F194" s="17"/>
       <c r="G194" s="17"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="18" t="str">
         <f>IF(ISBLANK(B195),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B195))</f>
         <v/>
@@ -4163,7 +4181,7 @@
       <c r="F195" s="20"/>
       <c r="G195" s="20"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="8" t="str">
         <f>IF(ISBLANK(B196),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B196))</f>
         <v/>
@@ -4174,7 +4192,7 @@
       <c r="F196" s="17"/>
       <c r="G196" s="17"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="18" t="str">
         <f>IF(ISBLANK(B197),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B197))</f>
         <v/>
@@ -4186,7 +4204,7 @@
       <c r="F197" s="20"/>
       <c r="G197" s="20"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="8" t="str">
         <f>IF(ISBLANK(B198),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B198))</f>
         <v/>
@@ -4197,7 +4215,7 @@
       <c r="F198" s="17"/>
       <c r="G198" s="17"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="18" t="str">
         <f>IF(ISBLANK(B199),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B199))</f>
         <v/>
@@ -4209,7 +4227,7 @@
       <c r="F199" s="20"/>
       <c r="G199" s="20"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="8" t="str">
         <f>IF(ISBLANK(B200),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B200))</f>
         <v/>
@@ -4220,7 +4238,7 @@
       <c r="F200" s="17"/>
       <c r="G200" s="17"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="18" t="str">
         <f>IF(ISBLANK(B201),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B201))</f>
         <v/>
@@ -4232,7 +4250,7 @@
       <c r="F201" s="20"/>
       <c r="G201" s="20"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="8" t="str">
         <f>IF(ISBLANK(B202),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B202))</f>
         <v/>
@@ -4243,7 +4261,7 @@
       <c r="F202" s="17"/>
       <c r="G202" s="17"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="18" t="str">
         <f>IF(ISBLANK(B203),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B203))</f>
         <v/>
@@ -4255,7 +4273,7 @@
       <c r="F203" s="20"/>
       <c r="G203" s="20"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="8" t="str">
         <f>IF(ISBLANK(B204),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B204))</f>
         <v/>
@@ -4266,7 +4284,7 @@
       <c r="F204" s="17"/>
       <c r="G204" s="17"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="18" t="str">
         <f>IF(ISBLANK(B205),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B205))</f>
         <v/>
@@ -4278,7 +4296,7 @@
       <c r="F205" s="20"/>
       <c r="G205" s="20"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="8" t="str">
         <f>IF(ISBLANK(B206),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B206))</f>
         <v/>
@@ -4289,7 +4307,7 @@
       <c r="F206" s="17"/>
       <c r="G206" s="17"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="18" t="str">
         <f>IF(ISBLANK(B207),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B207))</f>
         <v/>
@@ -4301,7 +4319,7 @@
       <c r="F207" s="20"/>
       <c r="G207" s="20"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="8" t="str">
         <f>IF(ISBLANK(B208),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B208))</f>
         <v/>
@@ -4312,7 +4330,7 @@
       <c r="F208" s="17"/>
       <c r="G208" s="17"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="18" t="str">
         <f>IF(ISBLANK(B209),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B209))</f>
         <v/>
@@ -4324,7 +4342,7 @@
       <c r="F209" s="20"/>
       <c r="G209" s="20"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="8" t="str">
         <f>IF(ISBLANK(B210),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B210))</f>
         <v/>
@@ -4335,7 +4353,7 @@
       <c r="F210" s="17"/>
       <c r="G210" s="17"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="18" t="str">
         <f>IF(ISBLANK(B211),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B211))</f>
         <v/>
@@ -4347,7 +4365,7 @@
       <c r="F211" s="20"/>
       <c r="G211" s="20"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="8" t="str">
         <f>IF(ISBLANK(B212),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B212))</f>
         <v/>
@@ -4358,7 +4376,7 @@
       <c r="F212" s="17"/>
       <c r="G212" s="17"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="18" t="str">
         <f>IF(ISBLANK(B213),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B213))</f>
         <v/>
@@ -4370,7 +4388,7 @@
       <c r="F213" s="20"/>
       <c r="G213" s="20"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="8" t="str">
         <f>IF(ISBLANK(B214),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B214))</f>
         <v/>
@@ -4381,7 +4399,7 @@
       <c r="F214" s="17"/>
       <c r="G214" s="17"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="18" t="str">
         <f>IF(ISBLANK(B215),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B215))</f>
         <v/>
@@ -4393,7 +4411,7 @@
       <c r="F215" s="20"/>
       <c r="G215" s="20"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="8" t="str">
         <f>IF(ISBLANK(B216),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B216))</f>
         <v/>
@@ -4404,7 +4422,7 @@
       <c r="F216" s="17"/>
       <c r="G216" s="17"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="18" t="str">
         <f>IF(ISBLANK(B217),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B217))</f>
         <v/>
@@ -4416,7 +4434,7 @@
       <c r="F217" s="20"/>
       <c r="G217" s="20"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="8" t="str">
         <f>IF(ISBLANK(B218),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B218))</f>
         <v/>
@@ -4427,7 +4445,7 @@
       <c r="F218" s="17"/>
       <c r="G218" s="17"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="18" t="str">
         <f>IF(ISBLANK(B219),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B219))</f>
         <v/>
@@ -4439,7 +4457,7 @@
       <c r="F219" s="20"/>
       <c r="G219" s="20"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="8" t="str">
         <f>IF(ISBLANK(B220),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B220))</f>
         <v/>
@@ -4450,7 +4468,7 @@
       <c r="F220" s="17"/>
       <c r="G220" s="17"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="18" t="str">
         <f>IF(ISBLANK(B221),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B221))</f>
         <v/>
@@ -4462,7 +4480,7 @@
       <c r="F221" s="20"/>
       <c r="G221" s="20"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="8" t="str">
         <f>IF(ISBLANK(B222),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B222))</f>
         <v/>
@@ -4473,7 +4491,7 @@
       <c r="F222" s="17"/>
       <c r="G222" s="17"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="18" t="str">
         <f>IF(ISBLANK(B223),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B223))</f>
         <v/>
@@ -4485,7 +4503,7 @@
       <c r="F223" s="20"/>
       <c r="G223" s="20"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="8" t="str">
         <f>IF(ISBLANK(B224),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B224))</f>
         <v/>
@@ -4496,7 +4514,7 @@
       <c r="F224" s="17"/>
       <c r="G224" s="17"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="18" t="str">
         <f>IF(ISBLANK(B225),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B225))</f>
         <v/>
@@ -4508,7 +4526,7 @@
       <c r="F225" s="20"/>
       <c r="G225" s="20"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="8" t="str">
         <f>IF(ISBLANK(B226),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B226))</f>
         <v/>
@@ -4519,7 +4537,7 @@
       <c r="F226" s="17"/>
       <c r="G226" s="17"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="18" t="str">
         <f>IF(ISBLANK(B227),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B227))</f>
         <v/>
@@ -4531,7 +4549,7 @@
       <c r="F227" s="20"/>
       <c r="G227" s="20"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="8" t="str">
         <f>IF(ISBLANK(B228),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B228))</f>
         <v/>
@@ -4542,7 +4560,7 @@
       <c r="F228" s="17"/>
       <c r="G228" s="17"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="18" t="str">
         <f>IF(ISBLANK(B229),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B229))</f>
         <v/>
@@ -4554,7 +4572,7 @@
       <c r="F229" s="20"/>
       <c r="G229" s="20"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="8" t="str">
         <f>IF(ISBLANK(B230),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B230))</f>
         <v/>
@@ -4565,7 +4583,7 @@
       <c r="F230" s="17"/>
       <c r="G230" s="17"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="18" t="str">
         <f>IF(ISBLANK(B231),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B231))</f>
         <v/>
@@ -4577,7 +4595,7 @@
       <c r="F231" s="20"/>
       <c r="G231" s="20"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="8" t="str">
         <f>IF(ISBLANK(B232),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B232))</f>
         <v/>
@@ -4588,7 +4606,7 @@
       <c r="F232" s="17"/>
       <c r="G232" s="17"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="18" t="str">
         <f>IF(ISBLANK(B233),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B233))</f>
         <v/>
@@ -4600,7 +4618,7 @@
       <c r="F233" s="20"/>
       <c r="G233" s="20"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="8" t="str">
         <f>IF(ISBLANK(B234),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B234))</f>
         <v/>
@@ -4611,7 +4629,7 @@
       <c r="F234" s="17"/>
       <c r="G234" s="17"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="18" t="str">
         <f>IF(ISBLANK(B235),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B235))</f>
         <v/>
@@ -4623,7 +4641,7 @@
       <c r="F235" s="20"/>
       <c r="G235" s="20"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="8" t="str">
         <f>IF(ISBLANK(B236),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B236))</f>
         <v/>
@@ -4634,7 +4652,7 @@
       <c r="F236" s="17"/>
       <c r="G236" s="17"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="18" t="str">
         <f>IF(ISBLANK(B237),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B237))</f>
         <v/>
@@ -4646,7 +4664,7 @@
       <c r="F237" s="20"/>
       <c r="G237" s="20"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="8" t="str">
         <f>IF(ISBLANK(B238),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B238))</f>
         <v/>
@@ -4657,7 +4675,7 @@
       <c r="F238" s="17"/>
       <c r="G238" s="17"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="18" t="str">
         <f>IF(ISBLANK(B239),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B239))</f>
         <v/>
@@ -4669,7 +4687,7 @@
       <c r="F239" s="20"/>
       <c r="G239" s="20"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="8" t="str">
         <f>IF(ISBLANK(B240),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B240))</f>
         <v/>
@@ -4680,7 +4698,7 @@
       <c r="F240" s="17"/>
       <c r="G240" s="17"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="18" t="str">
         <f>IF(ISBLANK(B241),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B241))</f>
         <v/>
@@ -4692,7 +4710,7 @@
       <c r="F241" s="20"/>
       <c r="G241" s="20"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="8" t="str">
         <f>IF(ISBLANK(B242),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B242))</f>
         <v/>
@@ -4703,7 +4721,7 @@
       <c r="F242" s="17"/>
       <c r="G242" s="17"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="18" t="str">
         <f>IF(ISBLANK(B243),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B243))</f>
         <v/>
@@ -4715,7 +4733,7 @@
       <c r="F243" s="20"/>
       <c r="G243" s="20"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="8" t="str">
         <f>IF(ISBLANK(B244),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B244))</f>
         <v/>
@@ -4726,7 +4744,7 @@
       <c r="F244" s="17"/>
       <c r="G244" s="17"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="18" t="str">
         <f>IF(ISBLANK(B245),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B245))</f>
         <v/>
@@ -4738,7 +4756,7 @@
       <c r="F245" s="20"/>
       <c r="G245" s="20"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="8" t="str">
         <f>IF(ISBLANK(B246),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B246))</f>
         <v/>
@@ -4749,7 +4767,7 @@
       <c r="F246" s="17"/>
       <c r="G246" s="17"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="18" t="str">
         <f>IF(ISBLANK(B247),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B247))</f>
         <v/>
@@ -4761,7 +4779,7 @@
       <c r="F247" s="20"/>
       <c r="G247" s="20"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="8" t="str">
         <f>IF(ISBLANK(B248),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B248))</f>
         <v/>
@@ -4772,7 +4790,7 @@
       <c r="F248" s="17"/>
       <c r="G248" s="17"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="18" t="str">
         <f>IF(ISBLANK(B249),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B249))</f>
         <v/>
@@ -4784,7 +4802,7 @@
       <c r="F249" s="20"/>
       <c r="G249" s="20"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="8" t="str">
         <f>IF(ISBLANK(B250),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B250))</f>
         <v/>
@@ -4795,7 +4813,7 @@
       <c r="F250" s="17"/>
       <c r="G250" s="17"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="18" t="str">
         <f>IF(ISBLANK(B251),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B251))</f>
         <v/>
@@ -4807,7 +4825,7 @@
       <c r="F251" s="20"/>
       <c r="G251" s="20"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="8" t="str">
         <f>IF(ISBLANK(B252),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B252))</f>
         <v/>
@@ -4818,7 +4836,7 @@
       <c r="F252" s="17"/>
       <c r="G252" s="17"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="18" t="str">
         <f>IF(ISBLANK(B253),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B253))</f>
         <v/>
@@ -4830,7 +4848,7 @@
       <c r="F253" s="20"/>
       <c r="G253" s="20"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="8" t="str">
         <f>IF(ISBLANK(B254),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B254))</f>
         <v/>
@@ -4841,7 +4859,7 @@
       <c r="F254" s="17"/>
       <c r="G254" s="17"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="18" t="str">
         <f>IF(ISBLANK(B255),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B255))</f>
         <v/>
@@ -4853,7 +4871,7 @@
       <c r="F255" s="20"/>
       <c r="G255" s="20"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="8" t="str">
         <f>IF(ISBLANK(B256),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B256))</f>
         <v/>
@@ -4864,7 +4882,7 @@
       <c r="F256" s="17"/>
       <c r="G256" s="17"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="18" t="str">
         <f>IF(ISBLANK(B257),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B257))</f>
         <v/>
@@ -4876,7 +4894,7 @@
       <c r="F257" s="20"/>
       <c r="G257" s="20"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="8" t="str">
         <f>IF(ISBLANK(B258),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B258))</f>
         <v/>
@@ -4887,7 +4905,7 @@
       <c r="F258" s="17"/>
       <c r="G258" s="17"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="18" t="str">
         <f>IF(ISBLANK(B259),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B259))</f>
         <v/>
@@ -4899,7 +4917,7 @@
       <c r="F259" s="20"/>
       <c r="G259" s="20"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="8" t="str">
         <f>IF(ISBLANK(B260),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B260))</f>
         <v/>
@@ -4910,7 +4928,7 @@
       <c r="F260" s="17"/>
       <c r="G260" s="17"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="18" t="str">
         <f>IF(ISBLANK(B261),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B261))</f>
         <v/>
@@ -4922,7 +4940,7 @@
       <c r="F261" s="20"/>
       <c r="G261" s="20"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="8" t="str">
         <f>IF(ISBLANK(B262),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B262))</f>
         <v/>
@@ -4933,7 +4951,7 @@
       <c r="F262" s="17"/>
       <c r="G262" s="17"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="18" t="str">
         <f>IF(ISBLANK(B263),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B263))</f>
         <v/>
@@ -4945,7 +4963,7 @@
       <c r="F263" s="20"/>
       <c r="G263" s="20"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="8" t="str">
         <f>IF(ISBLANK(B264),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B264))</f>
         <v/>
@@ -4956,7 +4974,7 @@
       <c r="F264" s="17"/>
       <c r="G264" s="17"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="18" t="str">
         <f>IF(ISBLANK(B265),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B265))</f>
         <v/>
@@ -4968,7 +4986,7 @@
       <c r="F265" s="20"/>
       <c r="G265" s="20"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="8" t="str">
         <f>IF(ISBLANK(B266),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B266))</f>
         <v/>
@@ -4979,7 +4997,7 @@
       <c r="F266" s="17"/>
       <c r="G266" s="17"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="18" t="str">
         <f>IF(ISBLANK(B267),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B267))</f>
         <v/>
@@ -4991,7 +5009,7 @@
       <c r="F267" s="20"/>
       <c r="G267" s="20"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="8" t="str">
         <f>IF(ISBLANK(B268),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B268))</f>
         <v/>
@@ -5002,7 +5020,7 @@
       <c r="F268" s="17"/>
       <c r="G268" s="17"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="18" t="str">
         <f>IF(ISBLANK(B269),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B269))</f>
         <v/>
@@ -5014,7 +5032,7 @@
       <c r="F269" s="20"/>
       <c r="G269" s="20"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="8" t="str">
         <f>IF(ISBLANK(B270),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B270))</f>
         <v/>
@@ -5025,7 +5043,7 @@
       <c r="F270" s="17"/>
       <c r="G270" s="17"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="18" t="str">
         <f>IF(ISBLANK(B271),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B271))</f>
         <v/>
@@ -5037,7 +5055,7 @@
       <c r="F271" s="20"/>
       <c r="G271" s="20"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="8" t="str">
         <f>IF(ISBLANK(B272),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B272))</f>
         <v/>
@@ -5048,7 +5066,7 @@
       <c r="F272" s="17"/>
       <c r="G272" s="17"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="18" t="str">
         <f>IF(ISBLANK(B273),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B273))</f>
         <v/>
@@ -5060,7 +5078,7 @@
       <c r="F273" s="20"/>
       <c r="G273" s="20"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="8" t="str">
         <f>IF(ISBLANK(B274),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B274))</f>
         <v/>
@@ -5071,7 +5089,7 @@
       <c r="F274" s="17"/>
       <c r="G274" s="17"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="18" t="str">
         <f>IF(ISBLANK(B275),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B275))</f>
         <v/>
@@ -5083,7 +5101,7 @@
       <c r="F275" s="20"/>
       <c r="G275" s="20"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="8" t="str">
         <f>IF(ISBLANK(B276),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B276))</f>
         <v/>
@@ -5094,7 +5112,7 @@
       <c r="F276" s="17"/>
       <c r="G276" s="17"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="18" t="str">
         <f>IF(ISBLANK(B277),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B277))</f>
         <v/>
@@ -5106,7 +5124,7 @@
       <c r="F277" s="20"/>
       <c r="G277" s="20"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="8" t="str">
         <f>IF(ISBLANK(B278),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B278))</f>
         <v/>
@@ -5117,7 +5135,7 @@
       <c r="F278" s="17"/>
       <c r="G278" s="17"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="18" t="str">
         <f>IF(ISBLANK(B279),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B279))</f>
         <v/>
@@ -5129,7 +5147,7 @@
       <c r="F279" s="20"/>
       <c r="G279" s="20"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="8" t="str">
         <f>IF(ISBLANK(B280),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B280))</f>
         <v/>
@@ -5140,7 +5158,7 @@
       <c r="F280" s="17"/>
       <c r="G280" s="17"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="18" t="str">
         <f>IF(ISBLANK(B281),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B281))</f>
         <v/>
@@ -5152,7 +5170,7 @@
       <c r="F281" s="20"/>
       <c r="G281" s="20"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="8" t="str">
         <f>IF(ISBLANK(B282),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B282))</f>
         <v/>
@@ -5163,7 +5181,7 @@
       <c r="F282" s="17"/>
       <c r="G282" s="17"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="18" t="str">
         <f>IF(ISBLANK(B283),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B283))</f>
         <v/>
@@ -5175,7 +5193,7 @@
       <c r="F283" s="20"/>
       <c r="G283" s="20"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="8" t="str">
         <f>IF(ISBLANK(B284),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B284))</f>
         <v/>
@@ -5186,7 +5204,7 @@
       <c r="F284" s="17"/>
       <c r="G284" s="17"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="18" t="str">
         <f>IF(ISBLANK(B285),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B285))</f>
         <v/>
@@ -5198,7 +5216,7 @@
       <c r="F285" s="20"/>
       <c r="G285" s="20"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="8" t="str">
         <f>IF(ISBLANK(B286),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B286))</f>
         <v/>
@@ -5209,7 +5227,7 @@
       <c r="F286" s="17"/>
       <c r="G286" s="17"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="18" t="str">
         <f>IF(ISBLANK(B287),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B287))</f>
         <v/>
@@ -5221,7 +5239,7 @@
       <c r="F287" s="20"/>
       <c r="G287" s="20"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="8" t="str">
         <f>IF(ISBLANK(B288),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B288))</f>
         <v/>
@@ -5232,7 +5250,7 @@
       <c r="F288" s="17"/>
       <c r="G288" s="17"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="18" t="str">
         <f>IF(ISBLANK(B289),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B289))</f>
         <v/>
@@ -5244,7 +5262,7 @@
       <c r="F289" s="20"/>
       <c r="G289" s="20"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="8" t="str">
         <f>IF(ISBLANK(B290),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B290))</f>
         <v/>
@@ -5255,7 +5273,7 @@
       <c r="F290" s="17"/>
       <c r="G290" s="17"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="18" t="str">
         <f>IF(ISBLANK(B291),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B291))</f>
         <v/>
@@ -5267,7 +5285,7 @@
       <c r="F291" s="20"/>
       <c r="G291" s="20"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="8" t="str">
         <f>IF(ISBLANK(B292),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B292))</f>
         <v/>
@@ -5278,7 +5296,7 @@
       <c r="F292" s="17"/>
       <c r="G292" s="17"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="18" t="str">
         <f>IF(ISBLANK(B293),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B293))</f>
         <v/>
@@ -5290,7 +5308,7 @@
       <c r="F293" s="20"/>
       <c r="G293" s="20"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="8" t="str">
         <f>IF(ISBLANK(B294),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B294))</f>
         <v/>
@@ -5301,7 +5319,7 @@
       <c r="F294" s="17"/>
       <c r="G294" s="17"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="18" t="str">
         <f>IF(ISBLANK(B295),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B295))</f>
         <v/>
@@ -5313,7 +5331,7 @@
       <c r="F295" s="20"/>
       <c r="G295" s="20"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="8" t="str">
         <f>IF(ISBLANK(B296),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B296))</f>
         <v/>
@@ -5324,7 +5342,7 @@
       <c r="F296" s="17"/>
       <c r="G296" s="17"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="18" t="str">
         <f>IF(ISBLANK(B297),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B297))</f>
         <v/>
@@ -5336,7 +5354,7 @@
       <c r="F297" s="20"/>
       <c r="G297" s="20"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="8" t="str">
         <f>IF(ISBLANK(B298),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B298))</f>
         <v/>
@@ -5347,7 +5365,7 @@
       <c r="F298" s="17"/>
       <c r="G298" s="17"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="18" t="str">
         <f>IF(ISBLANK(B299),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B299))</f>
         <v/>
@@ -5359,7 +5377,7 @@
       <c r="F299" s="20"/>
       <c r="G299" s="20"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="8" t="str">
         <f>IF(ISBLANK(B300),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B300))</f>
         <v/>
@@ -5370,7 +5388,7 @@
       <c r="F300" s="17"/>
       <c r="G300" s="17"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="18" t="str">
         <f>IF(ISBLANK(B301),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B301))</f>
         <v/>
@@ -5382,7 +5400,7 @@
       <c r="F301" s="20"/>
       <c r="G301" s="20"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="8" t="str">
         <f>IF(ISBLANK(B302),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B302))</f>
         <v/>
@@ -5393,7 +5411,7 @@
       <c r="F302" s="17"/>
       <c r="G302" s="17"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="18" t="str">
         <f>IF(ISBLANK(B303),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B303))</f>
         <v/>
@@ -5405,7 +5423,7 @@
       <c r="F303" s="20"/>
       <c r="G303" s="20"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="8" t="str">
         <f>IF(ISBLANK(B304),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B304))</f>
         <v/>
@@ -5416,7 +5434,7 @@
       <c r="F304" s="17"/>
       <c r="G304" s="17"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="18" t="str">
         <f>IF(ISBLANK(B305),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B305))</f>
         <v/>
@@ -5428,7 +5446,7 @@
       <c r="F305" s="20"/>
       <c r="G305" s="20"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="8" t="str">
         <f>IF(ISBLANK(B306),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B306))</f>
         <v/>
@@ -5439,7 +5457,7 @@
       <c r="F306" s="17"/>
       <c r="G306" s="17"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="18" t="str">
         <f>IF(ISBLANK(B307),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B307))</f>
         <v/>
@@ -5451,7 +5469,7 @@
       <c r="F307" s="20"/>
       <c r="G307" s="20"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="8" t="str">
         <f>IF(ISBLANK(B308),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B308))</f>
         <v/>
@@ -5462,7 +5480,7 @@
       <c r="F308" s="17"/>
       <c r="G308" s="17"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="18" t="str">
         <f>IF(ISBLANK(B309),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B309))</f>
         <v/>
@@ -5474,7 +5492,7 @@
       <c r="F309" s="20"/>
       <c r="G309" s="20"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="8" t="str">
         <f>IF(ISBLANK(B310),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B310))</f>
         <v/>
@@ -5485,7 +5503,7 @@
       <c r="F310" s="17"/>
       <c r="G310" s="17"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="18" t="str">
         <f>IF(ISBLANK(B311),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B311))</f>
         <v/>
@@ -5497,7 +5515,7 @@
       <c r="F311" s="20"/>
       <c r="G311" s="20"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="8" t="str">
         <f>IF(ISBLANK(B312),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B312))</f>
         <v/>
@@ -5508,7 +5526,7 @@
       <c r="F312" s="17"/>
       <c r="G312" s="17"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="18" t="str">
         <f>IF(ISBLANK(B313),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B313))</f>
         <v/>
@@ -5520,7 +5538,7 @@
       <c r="F313" s="20"/>
       <c r="G313" s="20"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="8" t="str">
         <f>IF(ISBLANK(B314),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B314))</f>
         <v/>
@@ -5531,7 +5549,7 @@
       <c r="F314" s="17"/>
       <c r="G314" s="17"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="18" t="str">
         <f>IF(ISBLANK(B315),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B315))</f>
         <v/>
@@ -5543,7 +5561,7 @@
       <c r="F315" s="20"/>
       <c r="G315" s="20"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="8" t="str">
         <f>IF(ISBLANK(B316),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B316))</f>
         <v/>
@@ -5554,7 +5572,7 @@
       <c r="F316" s="17"/>
       <c r="G316" s="17"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="18" t="str">
         <f>IF(ISBLANK(B317),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B317))</f>
         <v/>
@@ -5566,7 +5584,7 @@
       <c r="F317" s="20"/>
       <c r="G317" s="20"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="8" t="str">
         <f>IF(ISBLANK(B318),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B318))</f>
         <v/>
@@ -5577,7 +5595,7 @@
       <c r="F318" s="17"/>
       <c r="G318" s="17"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="18" t="str">
         <f>IF(ISBLANK(B319),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B319))</f>
         <v/>
@@ -5589,7 +5607,7 @@
       <c r="F319" s="20"/>
       <c r="G319" s="20"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="8" t="str">
         <f>IF(ISBLANK(B320),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B320))</f>
         <v/>
@@ -5600,7 +5618,7 @@
       <c r="F320" s="17"/>
       <c r="G320" s="17"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="18" t="str">
         <f>IF(ISBLANK(B321),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B321))</f>
         <v/>
@@ -5612,7 +5630,7 @@
       <c r="F321" s="20"/>
       <c r="G321" s="20"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="8" t="str">
         <f>IF(ISBLANK(B322),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B322))</f>
         <v/>
@@ -5623,7 +5641,7 @@
       <c r="F322" s="17"/>
       <c r="G322" s="17"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="18" t="str">
         <f>IF(ISBLANK(B323),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B323))</f>
         <v/>
@@ -5635,7 +5653,7 @@
       <c r="F323" s="20"/>
       <c r="G323" s="20"/>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="8" t="str">
         <f>IF(ISBLANK(B324),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B324))</f>
         <v/>
@@ -5646,7 +5664,7 @@
       <c r="F324" s="17"/>
       <c r="G324" s="17"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="18" t="str">
         <f>IF(ISBLANK(B325),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B325))</f>
         <v/>
@@ -5658,7 +5676,7 @@
       <c r="F325" s="20"/>
       <c r="G325" s="20"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="8" t="str">
         <f>IF(ISBLANK(B326),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B326))</f>
         <v/>
@@ -5669,7 +5687,7 @@
       <c r="F326" s="17"/>
       <c r="G326" s="17"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="18" t="str">
         <f>IF(ISBLANK(B327),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B327))</f>
         <v/>
@@ -5681,7 +5699,7 @@
       <c r="F327" s="20"/>
       <c r="G327" s="20"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="8" t="str">
         <f>IF(ISBLANK(B328),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B328))</f>
         <v/>
@@ -5692,7 +5710,7 @@
       <c r="F328" s="17"/>
       <c r="G328" s="17"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="18" t="str">
         <f>IF(ISBLANK(B329),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B329))</f>
         <v/>
@@ -5704,7 +5722,7 @@
       <c r="F329" s="20"/>
       <c r="G329" s="20"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="8" t="str">
         <f>IF(ISBLANK(B330),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B330))</f>
         <v/>
@@ -5715,7 +5733,7 @@
       <c r="F330" s="17"/>
       <c r="G330" s="17"/>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="18" t="str">
         <f>IF(ISBLANK(B331),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B331))</f>
         <v/>
@@ -5727,7 +5745,7 @@
       <c r="F331" s="20"/>
       <c r="G331" s="20"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="8" t="str">
         <f>IF(ISBLANK(B332),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B332))</f>
         <v/>
@@ -5738,7 +5756,7 @@
       <c r="F332" s="17"/>
       <c r="G332" s="17"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="18" t="str">
         <f>IF(ISBLANK(B333),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B333))</f>
         <v/>
@@ -5750,7 +5768,7 @@
       <c r="F333" s="20"/>
       <c r="G333" s="20"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="8" t="str">
         <f>IF(ISBLANK(B334),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B334))</f>
         <v/>
@@ -5761,7 +5779,7 @@
       <c r="F334" s="17"/>
       <c r="G334" s="17"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="18" t="str">
         <f>IF(ISBLANK(B335),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B335))</f>
         <v/>
@@ -5773,7 +5791,7 @@
       <c r="F335" s="20"/>
       <c r="G335" s="20"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="8" t="str">
         <f>IF(ISBLANK(B336),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B336))</f>
         <v/>
@@ -5784,7 +5802,7 @@
       <c r="F336" s="17"/>
       <c r="G336" s="17"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="18" t="str">
         <f>IF(ISBLANK(B337),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B337))</f>
         <v/>
@@ -5796,7 +5814,7 @@
       <c r="F337" s="20"/>
       <c r="G337" s="20"/>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="8" t="str">
         <f>IF(ISBLANK(B338),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B338))</f>
         <v/>
@@ -5807,7 +5825,7 @@
       <c r="F338" s="17"/>
       <c r="G338" s="17"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="18" t="str">
         <f>IF(ISBLANK(B339),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B339))</f>
         <v/>
@@ -5819,7 +5837,7 @@
       <c r="F339" s="20"/>
       <c r="G339" s="20"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="8" t="str">
         <f>IF(ISBLANK(B340),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B340))</f>
         <v/>
@@ -5830,7 +5848,7 @@
       <c r="F340" s="17"/>
       <c r="G340" s="17"/>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="18" t="str">
         <f>IF(ISBLANK(B341),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B341))</f>
         <v/>
@@ -5842,7 +5860,7 @@
       <c r="F341" s="20"/>
       <c r="G341" s="20"/>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="8" t="str">
         <f>IF(ISBLANK(B342),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B342))</f>
         <v/>
@@ -5853,7 +5871,7 @@
       <c r="F342" s="17"/>
       <c r="G342" s="17"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="18" t="str">
         <f>IF(ISBLANK(B343),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B343))</f>
         <v/>
@@ -5865,7 +5883,7 @@
       <c r="F343" s="20"/>
       <c r="G343" s="20"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="8" t="str">
         <f>IF(ISBLANK(B344),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B344))</f>
         <v/>
@@ -5876,7 +5894,7 @@
       <c r="F344" s="17"/>
       <c r="G344" s="17"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="18" t="str">
         <f>IF(ISBLANK(B345),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B345))</f>
         <v/>
@@ -5888,7 +5906,7 @@
       <c r="F345" s="20"/>
       <c r="G345" s="20"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="8" t="str">
         <f>IF(ISBLANK(B346),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B346))</f>
         <v/>
@@ -5899,7 +5917,7 @@
       <c r="F346" s="17"/>
       <c r="G346" s="17"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="18" t="str">
         <f>IF(ISBLANK(B347),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B347))</f>
         <v/>
@@ -5911,7 +5929,7 @@
       <c r="F347" s="20"/>
       <c r="G347" s="20"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="8" t="str">
         <f>IF(ISBLANK(B348),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B348))</f>
         <v/>
@@ -5922,7 +5940,7 @@
       <c r="F348" s="17"/>
       <c r="G348" s="17"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="18" t="str">
         <f>IF(ISBLANK(B349),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B349))</f>
         <v/>
@@ -5934,7 +5952,7 @@
       <c r="F349" s="20"/>
       <c r="G349" s="20"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="8" t="str">
         <f>IF(ISBLANK(B350),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B350))</f>
         <v/>
@@ -5945,7 +5963,7 @@
       <c r="F350" s="17"/>
       <c r="G350" s="17"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="18" t="str">
         <f>IF(ISBLANK(B351),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B351))</f>
         <v/>
@@ -5957,7 +5975,7 @@
       <c r="F351" s="20"/>
       <c r="G351" s="20"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="8" t="str">
         <f>IF(ISBLANK(B352),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B352))</f>
         <v/>
@@ -5968,7 +5986,7 @@
       <c r="F352" s="17"/>
       <c r="G352" s="17"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="18" t="str">
         <f>IF(ISBLANK(B353),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B353))</f>
         <v/>
@@ -5980,7 +5998,7 @@
       <c r="F353" s="20"/>
       <c r="G353" s="20"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="8" t="str">
         <f>IF(ISBLANK(B354),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B354))</f>
         <v/>
@@ -5991,7 +6009,7 @@
       <c r="F354" s="17"/>
       <c r="G354" s="17"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="18" t="str">
         <f>IF(ISBLANK(B355),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B355))</f>
         <v/>
@@ -6003,7 +6021,7 @@
       <c r="F355" s="20"/>
       <c r="G355" s="20"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="8" t="str">
         <f>IF(ISBLANK(B356),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B356))</f>
         <v/>
@@ -6014,7 +6032,7 @@
       <c r="F356" s="17"/>
       <c r="G356" s="17"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="18" t="str">
         <f>IF(ISBLANK(B357),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B357))</f>
         <v/>
@@ -6026,7 +6044,7 @@
       <c r="F357" s="20"/>
       <c r="G357" s="20"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="8" t="str">
         <f>IF(ISBLANK(B358),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B358))</f>
         <v/>
@@ -6037,7 +6055,7 @@
       <c r="F358" s="17"/>
       <c r="G358" s="17"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="18" t="str">
         <f>IF(ISBLANK(B359),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B359))</f>
         <v/>
@@ -6049,7 +6067,7 @@
       <c r="F359" s="20"/>
       <c r="G359" s="20"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="8" t="str">
         <f>IF(ISBLANK(B360),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B360))</f>
         <v/>
@@ -6060,7 +6078,7 @@
       <c r="F360" s="17"/>
       <c r="G360" s="17"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="18" t="str">
         <f>IF(ISBLANK(B361),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B361))</f>
         <v/>
@@ -6072,7 +6090,7 @@
       <c r="F361" s="20"/>
       <c r="G361" s="20"/>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="8" t="str">
         <f>IF(ISBLANK(B362),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B362))</f>
         <v/>
@@ -6083,7 +6101,7 @@
       <c r="F362" s="17"/>
       <c r="G362" s="17"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="18" t="str">
         <f>IF(ISBLANK(B363),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B363))</f>
         <v/>
@@ -6095,7 +6113,7 @@
       <c r="F363" s="20"/>
       <c r="G363" s="20"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="8" t="str">
         <f>IF(ISBLANK(B364),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B364))</f>
         <v/>
@@ -6106,7 +6124,7 @@
       <c r="F364" s="17"/>
       <c r="G364" s="17"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="18" t="str">
         <f>IF(ISBLANK(B365),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B365))</f>
         <v/>
@@ -6118,7 +6136,7 @@
       <c r="F365" s="20"/>
       <c r="G365" s="20"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="8" t="str">
         <f>IF(ISBLANK(B366),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B366))</f>
         <v/>
@@ -6129,7 +6147,7 @@
       <c r="F366" s="17"/>
       <c r="G366" s="17"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="18" t="str">
         <f>IF(ISBLANK(B367),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B367))</f>
         <v/>
@@ -6141,7 +6159,7 @@
       <c r="F367" s="20"/>
       <c r="G367" s="20"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="8" t="str">
         <f>IF(ISBLANK(B368),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B368))</f>
         <v/>
@@ -6152,7 +6170,7 @@
       <c r="F368" s="17"/>
       <c r="G368" s="17"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="18" t="str">
         <f>IF(ISBLANK(B369),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B369))</f>
         <v/>
@@ -6164,7 +6182,7 @@
       <c r="F369" s="20"/>
       <c r="G369" s="20"/>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="8" t="str">
         <f>IF(ISBLANK(B370),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B370))</f>
         <v/>
@@ -6175,7 +6193,7 @@
       <c r="F370" s="17"/>
       <c r="G370" s="17"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="18" t="str">
         <f>IF(ISBLANK(B371),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B371))</f>
         <v/>
@@ -6187,7 +6205,7 @@
       <c r="F371" s="20"/>
       <c r="G371" s="20"/>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="8" t="str">
         <f>IF(ISBLANK(B372),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B372))</f>
         <v/>
@@ -6198,7 +6216,7 @@
       <c r="F372" s="17"/>
       <c r="G372" s="17"/>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="18" t="str">
         <f>IF(ISBLANK(B373),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B373))</f>
         <v/>
@@ -6210,7 +6228,7 @@
       <c r="F373" s="20"/>
       <c r="G373" s="20"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="8" t="str">
         <f>IF(ISBLANK(B374),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B374))</f>
         <v/>
@@ -6221,7 +6239,7 @@
       <c r="F374" s="17"/>
       <c r="G374" s="17"/>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="18" t="str">
         <f>IF(ISBLANK(B375),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B375))</f>
         <v/>
@@ -6233,7 +6251,7 @@
       <c r="F375" s="20"/>
       <c r="G375" s="20"/>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="8" t="str">
         <f>IF(ISBLANK(B376),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B376))</f>
         <v/>
@@ -6244,7 +6262,7 @@
       <c r="F376" s="17"/>
       <c r="G376" s="17"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="18" t="str">
         <f>IF(ISBLANK(B377),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B377))</f>
         <v/>
@@ -6256,7 +6274,7 @@
       <c r="F377" s="20"/>
       <c r="G377" s="20"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="8" t="str">
         <f>IF(ISBLANK(B378),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B378))</f>
         <v/>
@@ -6267,7 +6285,7 @@
       <c r="F378" s="17"/>
       <c r="G378" s="17"/>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="18" t="str">
         <f>IF(ISBLANK(B379),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B379))</f>
         <v/>
@@ -6279,7 +6297,7 @@
       <c r="F379" s="20"/>
       <c r="G379" s="20"/>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="8" t="str">
         <f>IF(ISBLANK(B380),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B380))</f>
         <v/>
@@ -6290,7 +6308,7 @@
       <c r="F380" s="17"/>
       <c r="G380" s="17"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="18" t="str">
         <f>IF(ISBLANK(B381),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B381))</f>
         <v/>
@@ -6302,7 +6320,7 @@
       <c r="F381" s="20"/>
       <c r="G381" s="20"/>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="8" t="str">
         <f>IF(ISBLANK(B382),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B382))</f>
         <v/>
@@ -6313,7 +6331,7 @@
       <c r="F382" s="17"/>
       <c r="G382" s="17"/>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="18" t="str">
         <f>IF(ISBLANK(B383),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B383))</f>
         <v/>
@@ -6325,7 +6343,7 @@
       <c r="F383" s="20"/>
       <c r="G383" s="20"/>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="8" t="str">
         <f>IF(ISBLANK(B384),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B384))</f>
         <v/>
@@ -6336,7 +6354,7 @@
       <c r="F384" s="17"/>
       <c r="G384" s="17"/>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="18" t="str">
         <f>IF(ISBLANK(B385),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B385))</f>
         <v/>
@@ -6348,7 +6366,7 @@
       <c r="F385" s="20"/>
       <c r="G385" s="20"/>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="8" t="str">
         <f>IF(ISBLANK(B386),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B386))</f>
         <v/>
@@ -6359,7 +6377,7 @@
       <c r="F386" s="17"/>
       <c r="G386" s="17"/>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="18" t="str">
         <f>IF(ISBLANK(B387),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B387))</f>
         <v/>
@@ -6371,7 +6389,7 @@
       <c r="F387" s="20"/>
       <c r="G387" s="20"/>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="8" t="str">
         <f>IF(ISBLANK(B388),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B388))</f>
         <v/>
@@ -6382,7 +6400,7 @@
       <c r="F388" s="17"/>
       <c r="G388" s="17"/>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="18" t="str">
         <f>IF(ISBLANK(B389),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B389))</f>
         <v/>
@@ -6394,7 +6412,7 @@
       <c r="F389" s="20"/>
       <c r="G389" s="20"/>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="8" t="str">
         <f>IF(ISBLANK(B390),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B390))</f>
         <v/>
@@ -6405,7 +6423,7 @@
       <c r="F390" s="17"/>
       <c r="G390" s="17"/>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="18" t="str">
         <f>IF(ISBLANK(B391),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B391))</f>
         <v/>
@@ -6417,7 +6435,7 @@
       <c r="F391" s="20"/>
       <c r="G391" s="20"/>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="8" t="str">
         <f>IF(ISBLANK(B392),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B392))</f>
         <v/>
@@ -6428,7 +6446,7 @@
       <c r="F392" s="17"/>
       <c r="G392" s="17"/>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="18" t="str">
         <f>IF(ISBLANK(B393),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B393))</f>
         <v/>
@@ -6440,7 +6458,7 @@
       <c r="F393" s="20"/>
       <c r="G393" s="20"/>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="8" t="str">
         <f>IF(ISBLANK(B394),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B394))</f>
         <v/>
@@ -6451,7 +6469,7 @@
       <c r="F394" s="17"/>
       <c r="G394" s="17"/>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="18" t="str">
         <f>IF(ISBLANK(B395),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B395))</f>
         <v/>
@@ -6463,7 +6481,7 @@
       <c r="F395" s="20"/>
       <c r="G395" s="20"/>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="8" t="str">
         <f>IF(ISBLANK(B396),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B396))</f>
         <v/>
@@ -6474,7 +6492,7 @@
       <c r="F396" s="17"/>
       <c r="G396" s="17"/>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="18" t="str">
         <f>IF(ISBLANK(B397),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B397))</f>
         <v/>
@@ -6486,7 +6504,7 @@
       <c r="F397" s="20"/>
       <c r="G397" s="20"/>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="8" t="str">
         <f>IF(ISBLANK(B398),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B398))</f>
         <v/>
@@ -6497,7 +6515,7 @@
       <c r="F398" s="17"/>
       <c r="G398" s="17"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="18" t="str">
         <f>IF(ISBLANK(B399),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B399))</f>
         <v/>
@@ -6509,7 +6527,7 @@
       <c r="F399" s="20"/>
       <c r="G399" s="20"/>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="8" t="str">
         <f>IF(ISBLANK(B400),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B400))</f>
         <v/>
@@ -6520,7 +6538,7 @@
       <c r="F400" s="17"/>
       <c r="G400" s="17"/>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="18" t="str">
         <f>IF(ISBLANK(B401),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B401))</f>
         <v/>
@@ -6532,7 +6550,7 @@
       <c r="F401" s="20"/>
       <c r="G401" s="20"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="8" t="str">
         <f>IF(ISBLANK(B402),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B402))</f>
         <v/>
@@ -6543,7 +6561,7 @@
       <c r="F402" s="17"/>
       <c r="G402" s="17"/>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="18" t="str">
         <f>IF(ISBLANK(B403),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B403))</f>
         <v/>
@@ -6555,7 +6573,7 @@
       <c r="F403" s="20"/>
       <c r="G403" s="20"/>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="8" t="str">
         <f>IF(ISBLANK(B404),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B404))</f>
         <v/>
@@ -6566,7 +6584,7 @@
       <c r="F404" s="17"/>
       <c r="G404" s="17"/>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="18" t="str">
         <f>IF(ISBLANK(B405),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B405))</f>
         <v/>
@@ -6578,7 +6596,7 @@
       <c r="F405" s="20"/>
       <c r="G405" s="20"/>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="8" t="str">
         <f>IF(ISBLANK(B406),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B406))</f>
         <v/>
@@ -6589,7 +6607,7 @@
       <c r="F406" s="17"/>
       <c r="G406" s="17"/>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="18" t="str">
         <f>IF(ISBLANK(B407),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B407))</f>
         <v/>
@@ -6601,7 +6619,7 @@
       <c r="F407" s="20"/>
       <c r="G407" s="20"/>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="8" t="str">
         <f>IF(ISBLANK(B408),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B408))</f>
         <v/>
@@ -6612,7 +6630,7 @@
       <c r="F408" s="17"/>
       <c r="G408" s="17"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="18" t="str">
         <f>IF(ISBLANK(B409),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B409))</f>
         <v/>
@@ -6624,7 +6642,7 @@
       <c r="F409" s="20"/>
       <c r="G409" s="20"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="8" t="str">
         <f>IF(ISBLANK(B410),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B410))</f>
         <v/>
@@ -6635,7 +6653,7 @@
       <c r="F410" s="17"/>
       <c r="G410" s="17"/>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="18" t="str">
         <f>IF(ISBLANK(B411),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B411))</f>
         <v/>
@@ -6647,7 +6665,7 @@
       <c r="F411" s="20"/>
       <c r="G411" s="20"/>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="8" t="str">
         <f>IF(ISBLANK(B412),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B412))</f>
         <v/>
@@ -6658,7 +6676,7 @@
       <c r="F412" s="17"/>
       <c r="G412" s="17"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="18" t="str">
         <f>IF(ISBLANK(B413),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B413))</f>
         <v/>
@@ -6670,7 +6688,7 @@
       <c r="F413" s="20"/>
       <c r="G413" s="20"/>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="8" t="str">
         <f>IF(ISBLANK(B414),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B414))</f>
         <v/>
@@ -6681,7 +6699,7 @@
       <c r="F414" s="17"/>
       <c r="G414" s="17"/>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="18" t="str">
         <f>IF(ISBLANK(B415),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B415))</f>
         <v/>
@@ -6693,7 +6711,7 @@
       <c r="F415" s="20"/>
       <c r="G415" s="20"/>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="8" t="str">
         <f>IF(ISBLANK(B416),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B416))</f>
         <v/>
@@ -6704,7 +6722,7 @@
       <c r="F416" s="17"/>
       <c r="G416" s="17"/>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="18" t="str">
         <f>IF(ISBLANK(B417),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B417))</f>
         <v/>
@@ -6716,7 +6734,7 @@
       <c r="F417" s="20"/>
       <c r="G417" s="20"/>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="8" t="str">
         <f>IF(ISBLANK(B418),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B418))</f>
         <v/>
@@ -6727,7 +6745,7 @@
       <c r="F418" s="17"/>
       <c r="G418" s="17"/>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="18" t="str">
         <f>IF(ISBLANK(B419),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B419))</f>
         <v/>
@@ -6739,7 +6757,7 @@
       <c r="F419" s="20"/>
       <c r="G419" s="20"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="8" t="str">
         <f>IF(ISBLANK(B420),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B420))</f>
         <v/>
@@ -6750,7 +6768,7 @@
       <c r="F420" s="17"/>
       <c r="G420" s="17"/>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="18" t="str">
         <f>IF(ISBLANK(B421),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B421))</f>
         <v/>
@@ -6762,7 +6780,7 @@
       <c r="F421" s="20"/>
       <c r="G421" s="20"/>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="8" t="str">
         <f>IF(ISBLANK(B422),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B422))</f>
         <v/>
@@ -6773,7 +6791,7 @@
       <c r="F422" s="17"/>
       <c r="G422" s="17"/>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="18" t="str">
         <f>IF(ISBLANK(B423),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B423))</f>
         <v/>
@@ -6785,7 +6803,7 @@
       <c r="F423" s="20"/>
       <c r="G423" s="20"/>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="8" t="str">
         <f>IF(ISBLANK(B424),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B424))</f>
         <v/>
@@ -6796,7 +6814,7 @@
       <c r="F424" s="17"/>
       <c r="G424" s="17"/>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="18" t="str">
         <f>IF(ISBLANK(B425),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B425))</f>
         <v/>
@@ -6808,7 +6826,7 @@
       <c r="F425" s="20"/>
       <c r="G425" s="20"/>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="8" t="str">
         <f>IF(ISBLANK(B426),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B426))</f>
         <v/>
@@ -6819,7 +6837,7 @@
       <c r="F426" s="17"/>
       <c r="G426" s="17"/>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="18" t="str">
         <f>IF(ISBLANK(B427),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B427))</f>
         <v/>
@@ -6831,7 +6849,7 @@
       <c r="F427" s="20"/>
       <c r="G427" s="20"/>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="8" t="str">
         <f>IF(ISBLANK(B428),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B428))</f>
         <v/>
@@ -6842,7 +6860,7 @@
       <c r="F428" s="17"/>
       <c r="G428" s="17"/>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="18" t="str">
         <f>IF(ISBLANK(B429),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B429))</f>
         <v/>
@@ -6854,7 +6872,7 @@
       <c r="F429" s="20"/>
       <c r="G429" s="20"/>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="8" t="str">
         <f>IF(ISBLANK(B430),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B430))</f>
         <v/>
@@ -6865,7 +6883,7 @@
       <c r="F430" s="17"/>
       <c r="G430" s="17"/>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="18" t="str">
         <f>IF(ISBLANK(B431),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B431))</f>
         <v/>
@@ -6877,7 +6895,7 @@
       <c r="F431" s="20"/>
       <c r="G431" s="20"/>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="8" t="str">
         <f>IF(ISBLANK(B432),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B432))</f>
         <v/>
@@ -6888,7 +6906,7 @@
       <c r="F432" s="17"/>
       <c r="G432" s="17"/>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="18" t="str">
         <f>IF(ISBLANK(B433),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B433))</f>
         <v/>
@@ -6900,7 +6918,7 @@
       <c r="F433" s="20"/>
       <c r="G433" s="20"/>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="8" t="str">
         <f>IF(ISBLANK(B434),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B434))</f>
         <v/>
@@ -6911,7 +6929,7 @@
       <c r="F434" s="17"/>
       <c r="G434" s="17"/>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="18" t="str">
         <f>IF(ISBLANK(B435),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B435))</f>
         <v/>
@@ -6923,7 +6941,7 @@
       <c r="F435" s="20"/>
       <c r="G435" s="20"/>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="8" t="str">
         <f>IF(ISBLANK(B436),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B436))</f>
         <v/>
@@ -6934,7 +6952,7 @@
       <c r="F436" s="17"/>
       <c r="G436" s="17"/>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="18" t="str">
         <f>IF(ISBLANK(B437),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B437))</f>
         <v/>
@@ -6946,7 +6964,7 @@
       <c r="F437" s="20"/>
       <c r="G437" s="20"/>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="8" t="str">
         <f>IF(ISBLANK(B438),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B438))</f>
         <v/>
@@ -6957,7 +6975,7 @@
       <c r="F438" s="17"/>
       <c r="G438" s="17"/>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="18" t="str">
         <f>IF(ISBLANK(B439),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B439))</f>
         <v/>
@@ -6969,7 +6987,7 @@
       <c r="F439" s="20"/>
       <c r="G439" s="20"/>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="8" t="str">
         <f>IF(ISBLANK(B440),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B440))</f>
         <v/>
@@ -6980,7 +6998,7 @@
       <c r="F440" s="17"/>
       <c r="G440" s="17"/>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="18" t="str">
         <f>IF(ISBLANK(B441),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B441))</f>
         <v/>
@@ -6992,7 +7010,7 @@
       <c r="F441" s="20"/>
       <c r="G441" s="20"/>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="8" t="str">
         <f>IF(ISBLANK(B442),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B442))</f>
         <v/>
@@ -7003,7 +7021,7 @@
       <c r="F442" s="17"/>
       <c r="G442" s="17"/>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="18" t="str">
         <f>IF(ISBLANK(B443),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B443))</f>
         <v/>
@@ -7015,7 +7033,7 @@
       <c r="F443" s="20"/>
       <c r="G443" s="20"/>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="8" t="str">
         <f>IF(ISBLANK(B444),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B444))</f>
         <v/>
@@ -7026,7 +7044,7 @@
       <c r="F444" s="17"/>
       <c r="G444" s="17"/>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="18" t="str">
         <f>IF(ISBLANK(B445),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B445))</f>
         <v/>
@@ -7038,7 +7056,7 @@
       <c r="F445" s="20"/>
       <c r="G445" s="20"/>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="8" t="str">
         <f>IF(ISBLANK(B446),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B446))</f>
         <v/>
@@ -7049,7 +7067,7 @@
       <c r="F446" s="17"/>
       <c r="G446" s="17"/>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="18" t="str">
         <f>IF(ISBLANK(B447),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B447))</f>
         <v/>
@@ -7061,7 +7079,7 @@
       <c r="F447" s="20"/>
       <c r="G447" s="20"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="8" t="str">
         <f>IF(ISBLANK(B448),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B448))</f>
         <v/>
@@ -7072,7 +7090,7 @@
       <c r="F448" s="17"/>
       <c r="G448" s="17"/>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="18" t="str">
         <f>IF(ISBLANK(B449),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B449))</f>
         <v/>
@@ -7084,7 +7102,7 @@
       <c r="F449" s="20"/>
       <c r="G449" s="20"/>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="8" t="str">
         <f>IF(ISBLANK(B450),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B450))</f>
         <v/>
@@ -7095,7 +7113,7 @@
       <c r="F450" s="17"/>
       <c r="G450" s="17"/>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="18" t="str">
         <f>IF(ISBLANK(B451),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B451))</f>
         <v/>
@@ -7107,7 +7125,7 @@
       <c r="F451" s="20"/>
       <c r="G451" s="20"/>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="8" t="str">
         <f>IF(ISBLANK(B452),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B452))</f>
         <v/>
@@ -7118,7 +7136,7 @@
       <c r="F452" s="17"/>
       <c r="G452" s="17"/>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="18" t="str">
         <f>IF(ISBLANK(B453),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B453))</f>
         <v/>
@@ -7130,7 +7148,7 @@
       <c r="F453" s="20"/>
       <c r="G453" s="20"/>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="8" t="str">
         <f>IF(ISBLANK(B454),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B454))</f>
         <v/>
@@ -7141,7 +7159,7 @@
       <c r="F454" s="17"/>
       <c r="G454" s="17"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="18" t="str">
         <f>IF(ISBLANK(B455),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B455))</f>
         <v/>
@@ -7153,7 +7171,7 @@
       <c r="F455" s="20"/>
       <c r="G455" s="20"/>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="8" t="str">
         <f>IF(ISBLANK(B456),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B456))</f>
         <v/>
@@ -7164,7 +7182,7 @@
       <c r="F456" s="17"/>
       <c r="G456" s="17"/>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="18" t="str">
         <f>IF(ISBLANK(B457),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B457))</f>
         <v/>
@@ -7176,7 +7194,7 @@
       <c r="F457" s="20"/>
       <c r="G457" s="20"/>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="8" t="str">
         <f>IF(ISBLANK(B458),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B458))</f>
         <v/>
@@ -7187,7 +7205,7 @@
       <c r="F458" s="17"/>
       <c r="G458" s="17"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="18" t="str">
         <f>IF(ISBLANK(B459),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B459))</f>
         <v/>
@@ -7199,7 +7217,7 @@
       <c r="F459" s="20"/>
       <c r="G459" s="20"/>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="8" t="str">
         <f>IF(ISBLANK(B460),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B460))</f>
         <v/>
@@ -7210,7 +7228,7 @@
       <c r="F460" s="17"/>
       <c r="G460" s="17"/>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="18" t="str">
         <f>IF(ISBLANK(B461),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B461))</f>
         <v/>
@@ -7222,7 +7240,7 @@
       <c r="F461" s="20"/>
       <c r="G461" s="20"/>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="8" t="str">
         <f>IF(ISBLANK(B462),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B462))</f>
         <v/>
@@ -7233,7 +7251,7 @@
       <c r="F462" s="17"/>
       <c r="G462" s="17"/>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="18" t="str">
         <f>IF(ISBLANK(B463),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B463))</f>
         <v/>
@@ -7245,7 +7263,7 @@
       <c r="F463" s="20"/>
       <c r="G463" s="20"/>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="8" t="str">
         <f>IF(ISBLANK(B464),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B464))</f>
         <v/>
@@ -7256,7 +7274,7 @@
       <c r="F464" s="17"/>
       <c r="G464" s="17"/>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="18" t="str">
         <f>IF(ISBLANK(B465),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B465))</f>
         <v/>
@@ -7268,7 +7286,7 @@
       <c r="F465" s="20"/>
       <c r="G465" s="20"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="8" t="str">
         <f>IF(ISBLANK(B466),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B466))</f>
         <v/>
@@ -7279,7 +7297,7 @@
       <c r="F466" s="17"/>
       <c r="G466" s="17"/>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="18" t="str">
         <f>IF(ISBLANK(B467),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B467))</f>
         <v/>
@@ -7291,7 +7309,7 @@
       <c r="F467" s="20"/>
       <c r="G467" s="20"/>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="8" t="str">
         <f>IF(ISBLANK(B468),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B468))</f>
         <v/>
@@ -7302,7 +7320,7 @@
       <c r="F468" s="17"/>
       <c r="G468" s="17"/>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="18" t="str">
         <f>IF(ISBLANK(B469),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B469))</f>
         <v/>
@@ -7314,7 +7332,7 @@
       <c r="F469" s="20"/>
       <c r="G469" s="20"/>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="8" t="str">
         <f>IF(ISBLANK(B470),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B470))</f>
         <v/>
@@ -7325,7 +7343,7 @@
       <c r="F470" s="17"/>
       <c r="G470" s="17"/>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="18" t="str">
         <f>IF(ISBLANK(B471),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B471))</f>
         <v/>
@@ -7337,7 +7355,7 @@
       <c r="F471" s="20"/>
       <c r="G471" s="20"/>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="8" t="str">
         <f>IF(ISBLANK(B472),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B472))</f>
         <v/>
@@ -7348,7 +7366,7 @@
       <c r="F472" s="17"/>
       <c r="G472" s="17"/>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="18" t="str">
         <f>IF(ISBLANK(B473),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B473))</f>
         <v/>
@@ -7360,7 +7378,7 @@
       <c r="F473" s="20"/>
       <c r="G473" s="20"/>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="8" t="str">
         <f>IF(ISBLANK(B474),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B474))</f>
         <v/>
@@ -7371,7 +7389,7 @@
       <c r="F474" s="17"/>
       <c r="G474" s="17"/>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="18" t="str">
         <f>IF(ISBLANK(B475),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B475))</f>
         <v/>
@@ -7383,7 +7401,7 @@
       <c r="F475" s="20"/>
       <c r="G475" s="20"/>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="8" t="str">
         <f>IF(ISBLANK(B476),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B476))</f>
         <v/>
@@ -7394,7 +7412,7 @@
       <c r="F476" s="17"/>
       <c r="G476" s="17"/>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="18" t="str">
         <f>IF(ISBLANK(B477),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B477))</f>
         <v/>
@@ -7406,7 +7424,7 @@
       <c r="F477" s="20"/>
       <c r="G477" s="20"/>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="8" t="str">
         <f>IF(ISBLANK(B478),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B478))</f>
         <v/>
@@ -7417,7 +7435,7 @@
       <c r="F478" s="17"/>
       <c r="G478" s="17"/>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="18" t="str">
         <f>IF(ISBLANK(B479),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B479))</f>
         <v/>
@@ -7429,7 +7447,7 @@
       <c r="F479" s="20"/>
       <c r="G479" s="20"/>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="8" t="str">
         <f>IF(ISBLANK(B480),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B480))</f>
         <v/>
@@ -7440,7 +7458,7 @@
       <c r="F480" s="17"/>
       <c r="G480" s="17"/>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="18" t="str">
         <f>IF(ISBLANK(B481),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B481))</f>
         <v/>
@@ -7452,7 +7470,7 @@
       <c r="F481" s="20"/>
       <c r="G481" s="20"/>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="8" t="str">
         <f>IF(ISBLANK(B482),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B482))</f>
         <v/>
@@ -7463,7 +7481,7 @@
       <c r="F482" s="17"/>
       <c r="G482" s="17"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="18" t="str">
         <f>IF(ISBLANK(B483),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B483))</f>
         <v/>
@@ -7475,7 +7493,7 @@
       <c r="F483" s="20"/>
       <c r="G483" s="20"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="8" t="str">
         <f>IF(ISBLANK(B484),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B484))</f>
         <v/>
@@ -7486,7 +7504,7 @@
       <c r="F484" s="17"/>
       <c r="G484" s="17"/>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="18" t="str">
         <f>IF(ISBLANK(B485),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B485))</f>
         <v/>
@@ -7498,7 +7516,7 @@
       <c r="F485" s="20"/>
       <c r="G485" s="20"/>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="8" t="str">
         <f>IF(ISBLANK(B486),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B486))</f>
         <v/>
@@ -7509,7 +7527,7 @@
       <c r="F486" s="17"/>
       <c r="G486" s="17"/>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="18" t="str">
         <f>IF(ISBLANK(B487),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B487))</f>
         <v/>
@@ -7521,7 +7539,7 @@
       <c r="F487" s="20"/>
       <c r="G487" s="20"/>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="8" t="str">
         <f>IF(ISBLANK(B488),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B488))</f>
         <v/>
@@ -7532,7 +7550,7 @@
       <c r="F488" s="17"/>
       <c r="G488" s="17"/>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="18" t="str">
         <f>IF(ISBLANK(B489),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B489))</f>
         <v/>
@@ -7544,7 +7562,7 @@
       <c r="F489" s="20"/>
       <c r="G489" s="20"/>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="8" t="str">
         <f>IF(ISBLANK(B490),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B490))</f>
         <v/>
@@ -7555,7 +7573,7 @@
       <c r="F490" s="17"/>
       <c r="G490" s="17"/>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="18" t="str">
         <f>IF(ISBLANK(B491),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B491))</f>
         <v/>
@@ -7567,7 +7585,7 @@
       <c r="F491" s="20"/>
       <c r="G491" s="20"/>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="8" t="str">
         <f>IF(ISBLANK(B492),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B492))</f>
         <v/>
@@ -7578,7 +7596,7 @@
       <c r="F492" s="17"/>
       <c r="G492" s="17"/>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="18" t="str">
         <f>IF(ISBLANK(B493),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B493))</f>
         <v/>
@@ -7590,7 +7608,7 @@
       <c r="F493" s="20"/>
       <c r="G493" s="20"/>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="8" t="str">
         <f>IF(ISBLANK(B494),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B494))</f>
         <v/>
@@ -7601,7 +7619,7 @@
       <c r="F494" s="17"/>
       <c r="G494" s="17"/>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="18" t="str">
         <f>IF(ISBLANK(B495),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B495))</f>
         <v/>
@@ -7613,7 +7631,7 @@
       <c r="F495" s="20"/>
       <c r="G495" s="20"/>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="8" t="str">
         <f>IF(ISBLANK(B496),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B496))</f>
         <v/>
@@ -7624,7 +7642,7 @@
       <c r="F496" s="17"/>
       <c r="G496" s="17"/>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="18" t="str">
         <f>IF(ISBLANK(B497),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B497))</f>
         <v/>
@@ -7636,7 +7654,7 @@
       <c r="F497" s="20"/>
       <c r="G497" s="20"/>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="8" t="str">
         <f>IF(ISBLANK(B498),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B498))</f>
         <v/>
@@ -7647,7 +7665,7 @@
       <c r="F498" s="17"/>
       <c r="G498" s="17"/>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="18" t="str">
         <f>IF(ISBLANK(B499),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B499))</f>
         <v/>
@@ -7659,7 +7677,7 @@
       <c r="F499" s="20"/>
       <c r="G499" s="20"/>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="8" t="str">
         <f>IF(ISBLANK(B500),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B500))</f>
         <v/>
@@ -7670,7 +7688,7 @@
       <c r="F500" s="17"/>
       <c r="G500" s="17"/>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="18" t="str">
         <f>IF(ISBLANK(B501),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B501))</f>
         <v/>
@@ -7682,7 +7700,7 @@
       <c r="F501" s="20"/>
       <c r="G501" s="20"/>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="8" t="str">
         <f>IF(ISBLANK(B502),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B502))</f>
         <v/>
@@ -7693,7 +7711,7 @@
       <c r="F502" s="17"/>
       <c r="G502" s="17"/>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="18" t="str">
         <f>IF(ISBLANK(B503),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B503))</f>
         <v/>
@@ -7705,7 +7723,7 @@
       <c r="F503" s="20"/>
       <c r="G503" s="20"/>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="8" t="str">
         <f>IF(ISBLANK(B504),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B504))</f>
         <v/>
@@ -7716,7 +7734,7 @@
       <c r="F504" s="17"/>
       <c r="G504" s="17"/>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="18" t="str">
         <f>IF(ISBLANK(B505),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B505))</f>
         <v/>
@@ -7728,7 +7746,7 @@
       <c r="F505" s="20"/>
       <c r="G505" s="20"/>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="8" t="str">
         <f>IF(ISBLANK(B506),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B506))</f>
         <v/>
@@ -7739,7 +7757,7 @@
       <c r="F506" s="17"/>
       <c r="G506" s="17"/>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="18" t="str">
         <f>IF(ISBLANK(B507),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B507))</f>
         <v/>
@@ -7751,7 +7769,7 @@
       <c r="F507" s="20"/>
       <c r="G507" s="20"/>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="8" t="str">
         <f>IF(ISBLANK(B508),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B508))</f>
         <v/>
@@ -7762,7 +7780,7 @@
       <c r="F508" s="17"/>
       <c r="G508" s="17"/>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="18" t="str">
         <f>IF(ISBLANK(B509),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B509))</f>
         <v/>
@@ -7774,7 +7792,7 @@
       <c r="F509" s="20"/>
       <c r="G509" s="20"/>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="8" t="str">
         <f>IF(ISBLANK(B510),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B510))</f>
         <v/>
@@ -7785,7 +7803,7 @@
       <c r="F510" s="17"/>
       <c r="G510" s="17"/>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="18" t="str">
         <f>IF(ISBLANK(B511),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B511))</f>
         <v/>
@@ -7797,7 +7815,7 @@
       <c r="F511" s="20"/>
       <c r="G511" s="20"/>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="8" t="str">
         <f>IF(ISBLANK(B512),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B512))</f>
         <v/>
@@ -7808,7 +7826,7 @@
       <c r="F512" s="17"/>
       <c r="G512" s="17"/>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="18" t="str">
         <f>IF(ISBLANK(B513),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B513))</f>
         <v/>
@@ -7820,7 +7838,7 @@
       <c r="F513" s="20"/>
       <c r="G513" s="20"/>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="8" t="str">
         <f>IF(ISBLANK(B514),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B514))</f>
         <v/>
@@ -7831,7 +7849,7 @@
       <c r="F514" s="17"/>
       <c r="G514" s="17"/>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="18" t="str">
         <f>IF(ISBLANK(B515),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B515))</f>
         <v/>
@@ -7843,7 +7861,7 @@
       <c r="F515" s="20"/>
       <c r="G515" s="20"/>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="8" t="str">
         <f>IF(ISBLANK(B516),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B516))</f>
         <v/>
@@ -7854,7 +7872,7 @@
       <c r="F516" s="17"/>
       <c r="G516" s="17"/>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="18" t="str">
         <f>IF(ISBLANK(B517),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B517))</f>
         <v/>
@@ -7866,7 +7884,7 @@
       <c r="F517" s="20"/>
       <c r="G517" s="20"/>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="8" t="str">
         <f>IF(ISBLANK(B518),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B518))</f>
         <v/>
@@ -7877,7 +7895,7 @@
       <c r="F518" s="17"/>
       <c r="G518" s="17"/>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="18" t="str">
         <f>IF(ISBLANK(B519),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B519))</f>
         <v/>
@@ -7889,7 +7907,7 @@
       <c r="F519" s="20"/>
       <c r="G519" s="20"/>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" s="8" t="str">
         <f>IF(ISBLANK(B520),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B520))</f>
         <v/>
@@ -7900,7 +7918,7 @@
       <c r="F520" s="17"/>
       <c r="G520" s="17"/>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="18" t="str">
         <f>IF(ISBLANK(B521),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B521))</f>
         <v/>
@@ -7912,7 +7930,7 @@
       <c r="F521" s="20"/>
       <c r="G521" s="20"/>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="8" t="str">
         <f>IF(ISBLANK(B522),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B522))</f>
         <v/>
@@ -7923,7 +7941,7 @@
       <c r="F522" s="17"/>
       <c r="G522" s="17"/>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="18" t="str">
         <f>IF(ISBLANK(B523),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B523))</f>
         <v/>
@@ -7935,7 +7953,7 @@
       <c r="F523" s="20"/>
       <c r="G523" s="20"/>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="8" t="str">
         <f>IF(ISBLANK(B524),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B524))</f>
         <v/>
@@ -7946,7 +7964,7 @@
       <c r="F524" s="17"/>
       <c r="G524" s="17"/>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="18" t="str">
         <f>IF(ISBLANK(B525),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B525))</f>
         <v/>
@@ -7958,7 +7976,7 @@
       <c r="F525" s="20"/>
       <c r="G525" s="20"/>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="8" t="str">
         <f>IF(ISBLANK(B526),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B526))</f>
         <v/>
@@ -7969,7 +7987,7 @@
       <c r="F526" s="17"/>
       <c r="G526" s="17"/>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="18" t="str">
         <f>IF(ISBLANK(B527),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B527))</f>
         <v/>
@@ -7981,7 +7999,7 @@
       <c r="F527" s="20"/>
       <c r="G527" s="20"/>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="8" t="str">
         <f>IF(ISBLANK(B528),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B528))</f>
         <v/>
@@ -7992,7 +8010,7 @@
       <c r="F528" s="17"/>
       <c r="G528" s="17"/>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="18" t="str">
         <f>IF(ISBLANK(B529),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B529))</f>
         <v/>
@@ -8004,7 +8022,7 @@
       <c r="F529" s="20"/>
       <c r="G529" s="20"/>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="8" t="str">
         <f>IF(ISBLANK(B530),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B530))</f>
         <v/>
@@ -8015,7 +8033,7 @@
       <c r="F530" s="17"/>
       <c r="G530" s="17"/>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="18" t="str">
         <f>IF(ISBLANK(B531),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B531))</f>
         <v/>
@@ -8027,7 +8045,7 @@
       <c r="F531" s="20"/>
       <c r="G531" s="20"/>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="8" t="str">
         <f>IF(ISBLANK(B532),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B532))</f>
         <v/>
@@ -8045,28 +8063,28 @@
     <mergeCell ref="C5:D5"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:E532">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>$E7="Autre"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="2" stopIfTrue="1">
       <formula>$E7="Design"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="3" stopIfTrue="1">
       <formula>$E7="Présentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
       <formula>$E7="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
       <formula>$E7="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="6" stopIfTrue="1">
       <formula>$E7="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
       <formula>$E7="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>$E7="Développement"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8098,15 +8116,15 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="32" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -8120,7 +8138,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C4,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -8138,7 +8156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -8156,7 +8174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C6,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -8174,7 +8192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -8192,14 +8210,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C8,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
       </c>
       <c r="B8">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C8,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C8" s="31" t="str">
         <f>'Journal de travail'!M12</f>
@@ -8207,10 +8225,10 @@
       </c>
       <c r="D8" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C9,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -8228,10 +8246,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C10,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C10" s="49" t="str">
         <f>'Journal de travail'!M14</f>
@@ -8239,13 +8257,13 @@
       </c>
       <c r="D10" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C11,'Journal de travail'!$D$7:$D$532)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C11" s="51" t="str">
         <f>'Journal de travail'!M15</f>
@@ -8253,19 +8271,19 @@
       </c>
       <c r="D11" s="45">
         <f t="shared" si="0"/>
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C12" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.8194444444444441E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D14" s="50"/>
     </row>
   </sheetData>
@@ -8541,6 +8559,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
@@ -8552,34 +8579,44 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2AC923F-FD8C-4D8C-BC85-CA1561E8B39C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2AC923F-FD8C-4D8C-BC85-CA1561E8B39C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/JNLTrav.xlsx
+++ b/docs/JNLTrav.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po01imj\Documents\GitHub\P_AppMobile-Passion-Lecture\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF03AF9-302A-4A02-BB5D-EE5867E0617C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12ADB0AA-DFA5-4EFA-8429-E26A1BC47E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -140,6 +140,15 @@
   </si>
   <si>
     <t>Research et Développement sur l' de l'application mobile sur Maui</t>
+  </si>
+  <si>
+    <t>Remediation du project</t>
+  </si>
+  <si>
+    <t>Research sur le formating et les differentes elements balise maui</t>
+  </si>
+  <si>
+    <t>Développement du page library</t>
   </si>
 </sst>
 </file>
@@ -1057,10 +1066,10 @@
                 <c:formatCode>hh\ "h"\ mm\ "min"</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.0833333333333332E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12152777777777778</c:v>
+                  <c:v>0.18055555555555555</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1078,7 +1087,7 @@
                   <c:v>2.7777777777777776E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.0416666666666666E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1991,7 +2000,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2044,7 +2053,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 5 heurs 50 minutes</v>
+        <v>0 jours 8 heurs 0 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2063,11 +2072,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2215,15 +2224,23 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="str">
+      <c r="A11" s="17">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B11))</f>
-        <v/>
-      </c>
-      <c r="B11" s="51"/>
+        <v>16</v>
+      </c>
+      <c r="B11" s="51">
+        <v>45397</v>
+      </c>
       <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="37"/>
+      <c r="D11" s="53">
+        <v>15</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>33</v>
+      </c>
       <c r="G11" s="18"/>
       <c r="M11" t="s">
         <v>6</v>
@@ -2236,15 +2253,23 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="str">
+      <c r="A12" s="8">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B12))</f>
-        <v/>
-      </c>
-      <c r="B12" s="47"/>
+        <v>16</v>
+      </c>
+      <c r="B12" s="47">
+        <v>45397</v>
+      </c>
       <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="37"/>
+      <c r="D12" s="49">
+        <v>30</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>31</v>
+      </c>
       <c r="G12" s="16"/>
       <c r="M12" t="s">
         <v>7</v>
@@ -2257,15 +2282,23 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="str">
+      <c r="A13" s="17">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B13))</f>
-        <v/>
-      </c>
-      <c r="B13" s="51"/>
+        <v>16</v>
+      </c>
+      <c r="B13" s="51">
+        <v>45397</v>
+      </c>
       <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="37"/>
+      <c r="D13" s="53">
+        <v>30</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="G13" s="18"/>
       <c r="M13" t="s">
         <v>8</v>
@@ -2278,15 +2311,23 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="str">
+      <c r="A14" s="8">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B14))</f>
-        <v/>
-      </c>
-      <c r="B14" s="47"/>
+        <v>16</v>
+      </c>
+      <c r="B14" s="47">
+        <v>45397</v>
+      </c>
       <c r="C14" s="48"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="37"/>
+      <c r="D14" s="49">
+        <v>55</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="G14" s="16"/>
       <c r="M14" t="s">
         <v>21</v>
@@ -8624,7 +8665,7 @@
       </c>
       <c r="B4">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C4,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C4" s="26" t="str">
         <f>'Journal de travail'!M8</f>
@@ -8632,7 +8673,7 @@
       </c>
       <c r="D4" s="34">
         <f>(A4+B4)/1440</f>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -8642,7 +8683,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8650,7 +8691,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.12152777777777778</v>
+        <v>0.18055555555555555</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8742,7 +8783,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C11,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C11" s="40" t="str">
         <f>'Journal de travail'!M15</f>
@@ -8750,7 +8791,7 @@
       </c>
       <c r="D11" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0416666666666666E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -8759,7 +8800,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.15972222222222221</v>
+        <v>0.24999999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8996,6 +9037,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
@@ -9004,15 +9054,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9035,6 +9076,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9043,12 +9092,4 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/JNLTrav.xlsx
+++ b/docs/JNLTrav.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po01imj\Documents\GitHub\P_AppMobile-Passion-Lecture\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12ADB0AA-DFA5-4EFA-8429-E26A1BC47E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F9BFED-5F92-4DC8-8650-2DA0502B99F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -149,6 +149,18 @@
   </si>
   <si>
     <t>Développement du page library</t>
+  </si>
+  <si>
+    <t>Développement du page library (lien au settings, style, etc)</t>
+  </si>
+  <si>
+    <t>Développement du page library ( les tags, style)</t>
+  </si>
+  <si>
+    <t>Développement du tags (logic)</t>
+  </si>
+  <si>
+    <t>Research sur creation dynamic de elements via c#</t>
   </si>
 </sst>
 </file>
@@ -1066,10 +1078,10 @@
                 <c:formatCode>hh\ "h"\ mm\ "min"</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.0833333333333332E-2</c:v>
+                  <c:v>3.8194444444444448E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18055555555555555</c:v>
+                  <c:v>0.2951388888888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2000,7 +2012,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2053,7 +2065,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 8 heurs 0 minutes</v>
+        <v>0 jours 11 heurs 10 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2072,11 +2084,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>240</v>
+        <v>430</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>480</v>
+        <v>670</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2340,15 +2352,23 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="str">
+      <c r="A15" s="17">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B15))</f>
-        <v/>
-      </c>
-      <c r="B15" s="51"/>
+        <v>17</v>
+      </c>
+      <c r="B15" s="51">
+        <v>45404</v>
+      </c>
       <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="37"/>
+      <c r="D15" s="53">
+        <v>50</v>
+      </c>
+      <c r="E15" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>36</v>
+      </c>
       <c r="G15" s="18"/>
       <c r="M15" t="s">
         <v>22</v>
@@ -2361,60 +2381,92 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="str">
+      <c r="A16" s="8">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B16))</f>
-        <v/>
-      </c>
-      <c r="B16" s="47"/>
+        <v>17</v>
+      </c>
+      <c r="B16" s="47">
+        <v>45404</v>
+      </c>
       <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="37"/>
+      <c r="D16" s="49">
+        <v>40</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>37</v>
+      </c>
       <c r="G16" s="16"/>
       <c r="O16">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="str">
+      <c r="A17" s="17">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B17))</f>
-        <v/>
-      </c>
-      <c r="B17" s="51"/>
+        <v>17</v>
+      </c>
+      <c r="B17" s="51">
+        <v>45404</v>
+      </c>
       <c r="C17" s="52"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="37"/>
+      <c r="D17" s="53">
+        <v>30</v>
+      </c>
+      <c r="E17" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>38</v>
+      </c>
       <c r="G17" s="18"/>
       <c r="O17">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="str">
+      <c r="A18" s="8">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B18))</f>
-        <v/>
-      </c>
-      <c r="B18" s="47"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="47">
+        <v>45404</v>
+      </c>
       <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="37"/>
+      <c r="D18" s="49">
+        <v>25</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>39</v>
+      </c>
       <c r="G18" s="16"/>
       <c r="O18">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="str">
+      <c r="A19" s="17">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B19))</f>
-        <v/>
-      </c>
-      <c r="B19" s="51"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="51">
+        <v>45404</v>
+      </c>
       <c r="C19" s="52"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="37"/>
+      <c r="D19" s="53">
+        <v>45</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>38</v>
+      </c>
       <c r="G19" s="18"/>
       <c r="O19">
         <v>55</v>
@@ -8665,7 +8717,7 @@
       </c>
       <c r="B4">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C4,'Journal de travail'!$D$7:$D$532)</f>
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C4" s="26" t="str">
         <f>'Journal de travail'!M8</f>
@@ -8673,7 +8725,7 @@
       </c>
       <c r="D4" s="34">
         <f>(A4+B4)/1440</f>
-        <v>2.0833333333333332E-2</v>
+        <v>3.8194444444444448E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -8683,7 +8735,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>140</v>
+        <v>305</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8691,7 +8743,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.18055555555555555</v>
+        <v>0.2951388888888889</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8800,7 +8852,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.24999999999999997</v>
+        <v>0.38194444444444453</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -9037,15 +9089,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
@@ -9054,6 +9097,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9076,14 +9128,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9092,4 +9136,12 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/JNLTrav.xlsx
+++ b/docs/JNLTrav.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po01imj\Documents\GitHub\P_AppMobile-Passion-Lecture\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F9BFED-5F92-4DC8-8650-2DA0502B99F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD635E0-2ABC-406A-A343-74F787F192DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="3795" yWindow="1890" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>Research sur creation dynamic de elements via c#</t>
+  </si>
+  <si>
+    <t>Fini la création dynamic des tags.</t>
+  </si>
+  <si>
+    <t>Creation de pages templates pour les livres/tags</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1087,7 @@
                   <c:v>3.8194444444444448E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2951388888888889</c:v>
+                  <c:v>0.36458333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2011,8 +2017,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2065,7 +2071,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 11 heurs 10 minutes</v>
+        <v>0 jours 12 heurs 49 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2080,15 +2086,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="23">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>670</v>
+        <v>770</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2473,27 +2479,43 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="str">
+      <c r="A20" s="8">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B20))</f>
-        <v/>
-      </c>
-      <c r="B20" s="47"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="47">
+        <v>45411</v>
+      </c>
       <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="37"/>
+      <c r="D20" s="49">
+        <v>40</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="str">
+      <c r="A21" s="17">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B21))</f>
-        <v/>
-      </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="52"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="51">
+        <v>45411</v>
+      </c>
+      <c r="C21" s="52">
+        <v>1</v>
+      </c>
       <c r="D21" s="53"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="37"/>
+      <c r="E21" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>41</v>
+      </c>
       <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -8731,11 +8753,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8743,7 +8765,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.2951388888888889</v>
+        <v>0.36458333333333331</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8852,7 +8874,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.38194444444444453</v>
+        <v>0.45138888888888895</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -9089,6 +9111,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
@@ -9097,15 +9128,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9128,6 +9150,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9136,12 +9166,4 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/JNLTrav.xlsx
+++ b/docs/JNLTrav.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po01imj\Documents\GitHub\P_AppMobile-Passion-Lecture\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD635E0-2ABC-406A-A343-74F787F192DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E37FFB-5266-4C61-B482-2F6AA255B205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="1890" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -167,6 +167,18 @@
   </si>
   <si>
     <t>Creation de pages templates pour les livres/tags</t>
+  </si>
+  <si>
+    <t>Creation du class pour la connection a l'API</t>
+  </si>
+  <si>
+    <t>Recherche sur la connection a une API depuis c#</t>
+  </si>
+  <si>
+    <t>Tests du class connection API</t>
+  </si>
+  <si>
+    <t>Conversions des données JSON en objects</t>
   </si>
 </sst>
 </file>
@@ -1084,13 +1096,13 @@
                 <c:formatCode>hh\ "h"\ mm\ "min"</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3.8194444444444448E-2</c:v>
+                  <c:v>6.5972222222222224E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36458333333333331</c:v>
+                  <c:v>0.44444444444444442</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.7361111111111112E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2017,8 +2029,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2071,7 +2083,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 12 heurs 49 minutes</v>
+        <v>0 jours 15 heurs 49 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2086,15 +2098,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="23">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>470</v>
+        <v>590</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>770</v>
+        <v>950</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2519,51 +2531,85 @@
       <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="str">
+      <c r="A22" s="8">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B22))</f>
-        <v/>
-      </c>
-      <c r="B22" s="47"/>
+        <v>19</v>
+      </c>
+      <c r="B22" s="47">
+        <v>45418</v>
+      </c>
       <c r="C22" s="48"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="37"/>
+      <c r="D22" s="49">
+        <v>40</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>43</v>
+      </c>
       <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="str">
+      <c r="A23" s="17">
         <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B23))</f>
-        <v/>
-      </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="37"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="51">
+        <v>45418</v>
+      </c>
+      <c r="C23" s="52">
+        <v>1</v>
+      </c>
+      <c r="D23" s="53">
+        <v>10</v>
+      </c>
+      <c r="E23" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>42</v>
+      </c>
       <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="str">
+      <c r="A24" s="8">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B24))</f>
-        <v/>
-      </c>
-      <c r="B24" s="47"/>
+        <v>19</v>
+      </c>
+      <c r="B24" s="47">
+        <v>45418</v>
+      </c>
       <c r="C24" s="48"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="37"/>
+      <c r="D24" s="49">
+        <v>25</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>44</v>
+      </c>
       <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="str">
+      <c r="A25" s="17">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B25))</f>
-        <v/>
-      </c>
-      <c r="B25" s="51"/>
+        <v>19</v>
+      </c>
+      <c r="B25" s="51">
+        <v>45418</v>
+      </c>
       <c r="C25" s="52"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="37"/>
+      <c r="D25" s="53">
+        <v>45</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>45</v>
+      </c>
       <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -8739,7 +8785,7 @@
       </c>
       <c r="B4">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C4,'Journal de travail'!$D$7:$D$532)</f>
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C4" s="26" t="str">
         <f>'Journal de travail'!M8</f>
@@ -8747,17 +8793,17 @@
       </c>
       <c r="D4" s="34">
         <f>(A4+B4)/1440</f>
-        <v>3.8194444444444448E-2</v>
+        <v>6.5972222222222224E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>345</v>
+        <v>400</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8765,7 +8811,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.36458333333333331</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8775,7 +8821,7 @@
       </c>
       <c r="B6">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C6,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C6" s="27" t="str">
         <f>'Journal de travail'!M10</f>
@@ -8783,7 +8829,7 @@
       </c>
       <c r="D6" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.7361111111111112E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -8874,7 +8920,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.45138888888888895</v>
+        <v>0.57638888888888884</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -9111,15 +9157,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
@@ -9128,6 +9165,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9150,14 +9196,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9166,4 +9204,12 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/JNLTrav.xlsx
+++ b/docs/JNLTrav.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po01imj\Documents\GitHub\P_AppMobile-Passion-Lecture\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E37FFB-5266-4C61-B482-2F6AA255B205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971E3830-FFE9-498F-A633-4EEF87F4B3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -179,6 +179,24 @@
   </si>
   <si>
     <t>Conversions des données JSON en objects</t>
+  </si>
+  <si>
+    <t>Research sur l'utilisation de collection view xmal</t>
+  </si>
+  <si>
+    <t>Transfer d'un format grid a collection view pour le content page de livres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug fixing </t>
+  </si>
+  <si>
+    <t>Developpement des HTTP calls onvers l'api pour l'info des categories.</t>
+  </si>
+  <si>
+    <t>Preparer l'API pour le release.</t>
+  </si>
+  <si>
+    <t>Faire le release sur github</t>
   </si>
 </sst>
 </file>
@@ -1096,10 +1114,10 @@
                 <c:formatCode>hh\ "h"\ mm\ "min"</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>6.5972222222222224E-2</c:v>
+                  <c:v>0.11805555555555555</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44444444444444442</c:v>
+                  <c:v>0.56597222222222221</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.7361111111111112E-2</c:v>
@@ -1117,7 +1135,7 @@
                   <c:v>2.7777777777777776E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0416666666666666E-2</c:v>
+                  <c:v>2.4305555555555556E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2030,7 +2048,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2083,7 +2101,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 15 heurs 49 minutes</v>
+        <v>0 jours 20 heurs 19 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2098,15 +2116,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="23">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>590</v>
+        <v>680</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>950</v>
+        <v>1220</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2613,75 +2631,129 @@
       <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="str">
+      <c r="A26" s="8">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B26))</f>
-        <v/>
-      </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="37"/>
+        <v>20</v>
+      </c>
+      <c r="B26" s="47">
+        <v>45425</v>
+      </c>
+      <c r="C26" s="48">
+        <v>1</v>
+      </c>
+      <c r="D26" s="49">
+        <v>15</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="str">
+      <c r="A27" s="17">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B27))</f>
-        <v/>
-      </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="37"/>
+        <v>20</v>
+      </c>
+      <c r="B27" s="51">
+        <v>45425</v>
+      </c>
+      <c r="C27" s="52">
+        <v>1</v>
+      </c>
+      <c r="D27" s="53">
+        <v>15</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>47</v>
+      </c>
       <c r="G27" s="18"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="str">
+      <c r="A28" s="8">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B28))</f>
-        <v/>
-      </c>
-      <c r="B28" s="47"/>
+        <v>20</v>
+      </c>
+      <c r="B28" s="47">
+        <v>45425</v>
+      </c>
       <c r="C28" s="48"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="36"/>
+      <c r="D28" s="49">
+        <v>20</v>
+      </c>
+      <c r="E28" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>48</v>
+      </c>
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="str">
+      <c r="A29" s="17">
         <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B29))</f>
-        <v/>
-      </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="36"/>
+        <v>22</v>
+      </c>
+      <c r="B29" s="51">
+        <v>45439</v>
+      </c>
+      <c r="C29" s="52">
+        <v>1</v>
+      </c>
+      <c r="D29" s="53">
+        <v>0</v>
+      </c>
+      <c r="E29" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>49</v>
+      </c>
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="str">
+      <c r="A30" s="8">
         <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B30))</f>
-        <v/>
-      </c>
-      <c r="B30" s="47"/>
+        <v>22</v>
+      </c>
+      <c r="B30" s="47">
+        <v>45439</v>
+      </c>
       <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="37"/>
+      <c r="D30" s="49">
+        <v>25</v>
+      </c>
+      <c r="E30" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>50</v>
+      </c>
       <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="str">
+      <c r="A31" s="17">
         <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B31))</f>
-        <v/>
-      </c>
-      <c r="B31" s="51"/>
+        <v>22</v>
+      </c>
+      <c r="B31" s="51">
+        <v>45439</v>
+      </c>
       <c r="C31" s="52"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="36"/>
+      <c r="D31" s="53">
+        <v>15</v>
+      </c>
+      <c r="E31" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="G31" s="18"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -8781,11 +8853,11 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C4,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B4">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C4,'Journal de travail'!$D$7:$D$532)</f>
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C4" s="26" t="str">
         <f>'Journal de travail'!M8</f>
@@ -8793,17 +8865,17 @@
       </c>
       <c r="D4" s="34">
         <f>(A4+B4)/1440</f>
-        <v>6.5972222222222224E-2</v>
+        <v>0.11805555555555555</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8811,7 +8883,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.44444444444444442</v>
+        <v>0.56597222222222221</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8903,7 +8975,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C11,'Journal de travail'!$D$7:$D$532)</f>
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C11" s="40" t="str">
         <f>'Journal de travail'!M15</f>
@@ -8911,7 +8983,7 @@
       </c>
       <c r="D11" s="34">
         <f t="shared" si="0"/>
-        <v>1.0416666666666666E-2</v>
+        <v>2.4305555555555556E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -8920,7 +8992,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.57638888888888884</v>
+        <v>0.76388888888888895</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -9157,6 +9229,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
@@ -9165,15 +9246,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9196,6 +9268,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9204,12 +9284,4 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>